--- a/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006577991118815</v>
+        <v>1.001850850063868</v>
       </c>
       <c r="D2">
-        <v>1.024987221346438</v>
+        <v>1.023186870033379</v>
       </c>
       <c r="E2">
-        <v>1.012080698964005</v>
+        <v>1.007648872523644</v>
       </c>
       <c r="F2">
-        <v>1.023037177507157</v>
+        <v>1.027206733611119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049531016662773</v>
+        <v>1.044933861600174</v>
       </c>
       <c r="J2">
-        <v>1.028563720028425</v>
+        <v>1.023976343098547</v>
       </c>
       <c r="K2">
-        <v>1.036109083396389</v>
+        <v>1.034332356353209</v>
       </c>
       <c r="L2">
-        <v>1.023374257479632</v>
+        <v>1.019002665077647</v>
       </c>
       <c r="M2">
-        <v>1.034184632791481</v>
+        <v>1.038299613883496</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015196749542959</v>
+        <v>1.008495492077578</v>
       </c>
       <c r="D3">
-        <v>1.031830289911656</v>
+        <v>1.028295034095892</v>
       </c>
       <c r="E3">
-        <v>1.019610300309775</v>
+        <v>1.013139479766373</v>
       </c>
       <c r="F3">
-        <v>1.030990302581785</v>
+        <v>1.032857262222366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052971050792111</v>
+        <v>1.046780738603804</v>
       </c>
       <c r="J3">
-        <v>1.035281537670926</v>
+        <v>1.028757210475005</v>
       </c>
       <c r="K3">
-        <v>1.042071472155232</v>
+        <v>1.03857823584698</v>
       </c>
       <c r="L3">
-        <v>1.029998264729165</v>
+        <v>1.023606954238281</v>
       </c>
       <c r="M3">
-        <v>1.041241436445121</v>
+        <v>1.043086304807544</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020577786071312</v>
+        <v>1.012680559238355</v>
       </c>
       <c r="D4">
-        <v>1.036105269789694</v>
+        <v>1.031514846541488</v>
       </c>
       <c r="E4">
-        <v>1.02431205284324</v>
+        <v>1.016603894387237</v>
       </c>
       <c r="F4">
-        <v>1.035962889079037</v>
+        <v>1.036421400274559</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05510414715983</v>
+        <v>1.047932324470719</v>
       </c>
       <c r="J4">
-        <v>1.039469365603838</v>
+        <v>1.031765364521815</v>
       </c>
       <c r="K4">
-        <v>1.045786622193592</v>
+        <v>1.041247230746087</v>
       </c>
       <c r="L4">
-        <v>1.03412564721384</v>
+        <v>1.026505971615632</v>
       </c>
       <c r="M4">
-        <v>1.045645815975767</v>
+        <v>1.046099258704454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022796133512587</v>
+        <v>1.014413927924571</v>
       </c>
       <c r="D5">
-        <v>1.037868135677271</v>
+        <v>1.032848921412525</v>
       </c>
       <c r="E5">
-        <v>1.026250447861487</v>
+        <v>1.018040191949203</v>
       </c>
       <c r="F5">
-        <v>1.038014455311701</v>
+        <v>1.037898741691601</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055979939911869</v>
+        <v>1.048406430888893</v>
       </c>
       <c r="J5">
-        <v>1.04119421325402</v>
+        <v>1.033010489807625</v>
       </c>
       <c r="K5">
-        <v>1.047316341201109</v>
+        <v>1.042351338178592</v>
       </c>
       <c r="L5">
-        <v>1.035825124398996</v>
+        <v>1.027706389360633</v>
       </c>
       <c r="M5">
-        <v>1.047461090111601</v>
+        <v>1.04734661861862</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023166116061601</v>
+        <v>1.014703479476511</v>
       </c>
       <c r="D6">
-        <v>1.038162177244986</v>
+        <v>1.033071798980731</v>
       </c>
       <c r="E6">
-        <v>1.026573741653026</v>
+        <v>1.018280199650388</v>
       </c>
       <c r="F6">
-        <v>1.038356712979119</v>
+        <v>1.03814558978605</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056125794630049</v>
+        <v>1.048485458554086</v>
       </c>
       <c r="J6">
-        <v>1.041481792704463</v>
+        <v>1.033218434233862</v>
       </c>
       <c r="K6">
-        <v>1.04757136037774</v>
+        <v>1.042535693668245</v>
       </c>
       <c r="L6">
-        <v>1.036108445882377</v>
+        <v>1.027906894557319</v>
       </c>
       <c r="M6">
-        <v>1.047763818268203</v>
+        <v>1.047554950134222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020607596193699</v>
+        <v>1.012703821153246</v>
       </c>
       <c r="D7">
-        <v>1.036128957360079</v>
+        <v>1.031532748080215</v>
       </c>
       <c r="E7">
-        <v>1.024338100745938</v>
+        <v>1.016623164121584</v>
       </c>
       <c r="F7">
-        <v>1.035990451779411</v>
+        <v>1.036441221871166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055115930329754</v>
+        <v>1.047938698386347</v>
       </c>
       <c r="J7">
-        <v>1.039492550492011</v>
+        <v>1.03178207738622</v>
       </c>
       <c r="K7">
-        <v>1.045807186022114</v>
+        <v>1.041262053320002</v>
       </c>
       <c r="L7">
-        <v>1.034148492965409</v>
+        <v>1.026522082551066</v>
       </c>
       <c r="M7">
-        <v>1.045670211478827</v>
+        <v>1.046116000614063</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009533238125278</v>
+        <v>1.004120994243632</v>
       </c>
       <c r="D8">
-        <v>1.027332983129907</v>
+        <v>1.02493148953524</v>
       </c>
       <c r="E8">
-        <v>1.014662279678985</v>
+        <v>1.009523382131107</v>
       </c>
       <c r="F8">
-        <v>1.025762607643901</v>
+        <v>1.029136079190382</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050713617220926</v>
+        <v>1.045567263767164</v>
       </c>
       <c r="J8">
-        <v>1.030868469812509</v>
+        <v>1.025610326856141</v>
       </c>
       <c r="K8">
-        <v>1.038155015101075</v>
+        <v>1.035784014509987</v>
       </c>
       <c r="L8">
-        <v>1.025647237314868</v>
+        <v>1.020575880074428</v>
       </c>
       <c r="M8">
-        <v>1.036604559307548</v>
+        <v>1.039935333029346</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9883625154726472</v>
+        <v>0.9880530997979217</v>
       </c>
       <c r="D9">
-        <v>1.010545720450162</v>
+        <v>1.012598421241243</v>
       </c>
       <c r="E9">
-        <v>0.9961758531958178</v>
+        <v>0.996286096206643</v>
       </c>
       <c r="F9">
-        <v>1.006274648822835</v>
+        <v>1.015507226709928</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042180643581182</v>
+        <v>1.041036672175978</v>
       </c>
       <c r="J9">
-        <v>1.014333023928669</v>
+        <v>1.014034904017958</v>
       </c>
       <c r="K9">
-        <v>1.023469986790182</v>
+        <v>1.025490352032728</v>
       </c>
       <c r="L9">
-        <v>1.009331280720411</v>
+        <v>1.009439717673706</v>
       </c>
       <c r="M9">
-        <v>1.019266737964526</v>
+        <v>1.028353622215002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9728804838512641</v>
+        <v>0.976602443406147</v>
       </c>
       <c r="D10">
-        <v>0.9982993953047712</v>
+        <v>1.003834386535972</v>
       </c>
       <c r="E10">
-        <v>0.9826721776163676</v>
+        <v>0.9868959984014033</v>
       </c>
       <c r="F10">
-        <v>0.9920771346141342</v>
+        <v>1.005834740769829</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035865583470769</v>
+        <v>1.037750517367438</v>
       </c>
       <c r="J10">
-        <v>1.002212989266991</v>
+        <v>1.005776141423018</v>
       </c>
       <c r="K10">
-        <v>1.012699422730799</v>
+        <v>1.018134753354751</v>
       </c>
       <c r="L10">
-        <v>0.9973615014609847</v>
+        <v>1.001505950154439</v>
       </c>
       <c r="M10">
-        <v>1.006590927625647</v>
+        <v>1.020099440284619</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9657817648598104</v>
+        <v>0.9714422720246577</v>
       </c>
       <c r="D11">
-        <v>0.992694412532439</v>
+        <v>0.9998928582802168</v>
       </c>
       <c r="E11">
-        <v>0.9764864103806169</v>
+        <v>0.9826763338749165</v>
       </c>
       <c r="F11">
-        <v>0.9855828595286333</v>
+        <v>1.001487402984627</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032953632121636</v>
+        <v>1.036257084629456</v>
       </c>
       <c r="J11">
-        <v>0.9966507547344543</v>
+        <v>1.002053309555994</v>
       </c>
       <c r="K11">
-        <v>1.00775542925813</v>
+        <v>1.014816795419974</v>
       </c>
       <c r="L11">
-        <v>0.9918658124680489</v>
+        <v>0.9979325147211787</v>
       </c>
       <c r="M11">
-        <v>1.000781881634146</v>
+        <v>1.016381323471617</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9630783789175521</v>
+        <v>0.9694926292328686</v>
       </c>
       <c r="D12">
-        <v>0.9905616999201784</v>
+        <v>0.9984050291184092</v>
       </c>
       <c r="E12">
-        <v>0.9741318047284949</v>
+        <v>0.9810839851790334</v>
       </c>
       <c r="F12">
-        <v>0.9831122553046301</v>
+        <v>0.9998467892243497</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031842357987248</v>
+        <v>1.035691045836159</v>
       </c>
       <c r="J12">
-        <v>0.9945319067373558</v>
+        <v>1.000646684305427</v>
       </c>
       <c r="K12">
-        <v>1.005871984634299</v>
+        <v>1.013562850180217</v>
       </c>
       <c r="L12">
-        <v>0.9897719654215831</v>
+        <v>0.9965827862789084</v>
       </c>
       <c r="M12">
-        <v>0.9985703109231383</v>
+        <v>1.014976925099556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9636614094070365</v>
+        <v>0.9699123688935571</v>
       </c>
       <c r="D13">
-        <v>0.9910215679425858</v>
+        <v>0.9987252791926973</v>
       </c>
       <c r="E13">
-        <v>0.9746395611609536</v>
+        <v>0.9814267122640326</v>
       </c>
       <c r="F13">
-        <v>0.9836449608628772</v>
+        <v>1.000199907924954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032082125136496</v>
+        <v>1.035812987354028</v>
       </c>
       <c r="J13">
-        <v>0.9949888959203256</v>
+        <v>1.000949517517854</v>
       </c>
       <c r="K13">
-        <v>1.006278206284979</v>
+        <v>1.013832825506104</v>
       </c>
       <c r="L13">
-        <v>0.9902235779006886</v>
+        <v>0.9968733496211483</v>
       </c>
       <c r="M13">
-        <v>0.9990472389128618</v>
+        <v>1.015279257974056</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9655597075558422</v>
+        <v>0.9712818016008437</v>
       </c>
       <c r="D14">
-        <v>0.9925191919386804</v>
+        <v>0.9997703694964083</v>
       </c>
       <c r="E14">
-        <v>0.9762929782962858</v>
+        <v>0.982545231025878</v>
       </c>
       <c r="F14">
-        <v>0.9853798688609223</v>
+        <v>1.001352327881641</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032862397706393</v>
+        <v>1.036210530873414</v>
       </c>
       <c r="J14">
-        <v>0.9964767227137846</v>
+        <v>1.001937533828137</v>
       </c>
       <c r="K14">
-        <v>1.007600733949382</v>
+        <v>1.014713592159948</v>
       </c>
       <c r="L14">
-        <v>0.9916938408663961</v>
+        <v>0.997821412823244</v>
       </c>
       <c r="M14">
-        <v>1.000600207225364</v>
+        <v>1.016265721708427</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9667202462896544</v>
+        <v>0.9721211090762227</v>
       </c>
       <c r="D15">
-        <v>0.9934350234003693</v>
+        <v>1.000411079100614</v>
       </c>
       <c r="E15">
-        <v>0.9773039591129482</v>
+        <v>0.983231017595481</v>
       </c>
       <c r="F15">
-        <v>0.9864408663836821</v>
+        <v>1.002058889634329</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033339123103796</v>
+        <v>1.036453948844849</v>
       </c>
       <c r="J15">
-        <v>0.9973862435692451</v>
+        <v>1.002543073767699</v>
       </c>
       <c r="K15">
-        <v>1.008409193911845</v>
+        <v>1.015253362716429</v>
       </c>
       <c r="L15">
-        <v>0.9925925795858785</v>
+        <v>0.9984025256629754</v>
       </c>
       <c r="M15">
-        <v>1.001549721400963</v>
+        <v>1.016870370168687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9733426896409318</v>
+        <v>0.976940438011297</v>
       </c>
       <c r="D16">
-        <v>0.9986645743327689</v>
+        <v>1.004092739060949</v>
       </c>
       <c r="E16">
-        <v>0.9830750783781693</v>
+        <v>0.9871726491544235</v>
       </c>
       <c r="F16">
-        <v>0.9925003242903377</v>
+        <v>1.006119748491124</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036054857653582</v>
+        <v>1.037848086530372</v>
       </c>
       <c r="J16">
-        <v>1.002575061887153</v>
+        <v>1.006019976619025</v>
       </c>
       <c r="K16">
-        <v>1.013021233454958</v>
+        <v>1.018352027210734</v>
       </c>
       <c r="L16">
-        <v>0.9977191937706055</v>
+        <v>1.001740061495265</v>
       </c>
       <c r="M16">
-        <v>1.006969240662848</v>
+        <v>1.020343025459498</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9773862926564565</v>
+        <v>0.97990767098956</v>
       </c>
       <c r="D17">
-        <v>1.001860504296807</v>
+        <v>1.006361717301609</v>
       </c>
       <c r="E17">
-        <v>0.986600530048625</v>
+        <v>0.9896027145095322</v>
       </c>
       <c r="F17">
-        <v>0.9962043564021414</v>
+        <v>1.008623135955637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037708897333685</v>
+        <v>1.038703232557679</v>
       </c>
       <c r="J17">
-        <v>1.005742102956248</v>
+        <v>1.00816048206152</v>
       </c>
       <c r="K17">
-        <v>1.015835990584103</v>
+        <v>1.020259114499006</v>
       </c>
       <c r="L17">
-        <v>1.000847651597049</v>
+        <v>1.003795535294201</v>
       </c>
       <c r="M17">
-        <v>1.01027926592016</v>
+        <v>1.022481640997967</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9797073086261159</v>
+        <v>0.9816191106426724</v>
       </c>
       <c r="D18">
-        <v>1.003695880701852</v>
+        <v>1.007671151984654</v>
       </c>
       <c r="E18">
-        <v>0.9886246577432602</v>
+        <v>0.9910054395864953</v>
       </c>
       <c r="F18">
-        <v>0.9983318828873534</v>
+        <v>1.010068109989449</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038656771539257</v>
+        <v>1.039195274476636</v>
       </c>
       <c r="J18">
-        <v>1.007559494262469</v>
+        <v>1.009394973392634</v>
       </c>
       <c r="K18">
-        <v>1.017451121934584</v>
+        <v>1.021358772210647</v>
       </c>
       <c r="L18">
-        <v>1.002642676458615</v>
+        <v>1.004981258310717</v>
       </c>
       <c r="M18">
-        <v>1.01217947246278</v>
+        <v>1.023715288680605</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9804925471024439</v>
+        <v>0.9821994679613028</v>
       </c>
       <c r="D19">
-        <v>1.004316967616717</v>
+        <v>1.008115306762765</v>
       </c>
       <c r="E19">
-        <v>0.9893095376830872</v>
+        <v>0.9914812947384704</v>
       </c>
       <c r="F19">
-        <v>0.999051894851026</v>
+        <v>1.010558283879809</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038977188213963</v>
+        <v>1.03936192365263</v>
       </c>
       <c r="J19">
-        <v>1.008174262275928</v>
+        <v>1.00981357359835</v>
       </c>
       <c r="K19">
-        <v>1.017997452530969</v>
+        <v>1.021731614487815</v>
       </c>
       <c r="L19">
-        <v>1.003249839967397</v>
+        <v>1.005383367536888</v>
       </c>
       <c r="M19">
-        <v>1.012822382495049</v>
+        <v>1.024133643273715</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9769563848098567</v>
+        <v>0.9795913287031047</v>
       </c>
       <c r="D20">
-        <v>1.001520621439718</v>
+        <v>1.006119739725407</v>
       </c>
       <c r="E20">
-        <v>0.9862256545026167</v>
+        <v>0.9893435240260823</v>
       </c>
       <c r="F20">
-        <v>0.9958104011919041</v>
+        <v>1.008356132558918</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037533202416357</v>
+        <v>1.038612186640067</v>
       </c>
       <c r="J20">
-        <v>1.00540543842849</v>
+        <v>1.007932289262575</v>
       </c>
       <c r="K20">
-        <v>1.015536785148514</v>
+        <v>1.020055827717334</v>
       </c>
       <c r="L20">
-        <v>1.000515111966792</v>
+        <v>1.003576379121599</v>
       </c>
       <c r="M20">
-        <v>1.009927321871932</v>
+        <v>1.022253623768011</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9650026096184828</v>
+        <v>0.9708794689333303</v>
       </c>
       <c r="D21">
-        <v>0.9920796283315949</v>
+        <v>0.9994632875478048</v>
       </c>
       <c r="E21">
-        <v>0.9758077139250307</v>
+        <v>0.9822165608378238</v>
       </c>
       <c r="F21">
-        <v>0.9848706479611549</v>
+        <v>1.001013698123363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032633471788403</v>
+        <v>1.036093782635864</v>
       </c>
       <c r="J21">
-        <v>0.9960401017297404</v>
+        <v>1.001647259720121</v>
       </c>
       <c r="K21">
-        <v>1.007212624453984</v>
+        <v>1.01445483525043</v>
       </c>
       <c r="L21">
-        <v>0.9912623836314823</v>
+        <v>0.9975428642673575</v>
       </c>
       <c r="M21">
-        <v>1.000144433622138</v>
+        <v>1.015975891099512</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9570968238798191</v>
+        <v>0.9652099760329712</v>
       </c>
       <c r="D22">
-        <v>0.985846560718031</v>
+        <v>0.9951395784185707</v>
       </c>
       <c r="E22">
-        <v>0.968924291986477</v>
+        <v>0.9775899503057068</v>
       </c>
       <c r="F22">
-        <v>0.9776508910892611</v>
+        <v>0.996246726751005</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029379413732645</v>
+        <v>1.034444501542064</v>
       </c>
       <c r="J22">
-        <v>0.9898428057728533</v>
+        <v>0.9975568954979211</v>
       </c>
       <c r="K22">
-        <v>1.001703712627636</v>
+        <v>1.010807940058892</v>
       </c>
       <c r="L22">
-        <v>0.9851375664841616</v>
+        <v>0.9936188218062523</v>
       </c>
       <c r="M22">
-        <v>0.9936784810972696</v>
+        <v>1.011892905206218</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9613275806414393</v>
+        <v>0.968234623519494</v>
       </c>
       <c r="D23">
-        <v>0.9891810415940163</v>
+        <v>0.9974454222371812</v>
       </c>
       <c r="E23">
-        <v>0.9726072302058925</v>
+        <v>0.9800570927161807</v>
       </c>
       <c r="F23">
-        <v>0.9815129823959347</v>
+        <v>0.9987887509577991</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031122026133821</v>
+        <v>1.035325320922841</v>
       </c>
       <c r="J23">
-        <v>0.9931595275675702</v>
+        <v>0.999739062809047</v>
       </c>
       <c r="K23">
-        <v>1.004652053961009</v>
+        <v>1.012753666974959</v>
       </c>
       <c r="L23">
-        <v>0.9884156831455807</v>
+        <v>0.9957120058252209</v>
       </c>
       <c r="M23">
-        <v>0.9971382487254428</v>
+        <v>1.014070872339482</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9771507571643937</v>
+        <v>0.9797343296081434</v>
       </c>
       <c r="D24">
-        <v>1.001674288341485</v>
+        <v>1.00622912217971</v>
       </c>
       <c r="E24">
-        <v>0.9863951437137141</v>
+        <v>0.9894606863086394</v>
       </c>
       <c r="F24">
-        <v>0.9959885140294712</v>
+        <v>1.008476826761026</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037612643391003</v>
+        <v>1.038653347178347</v>
       </c>
       <c r="J24">
-        <v>1.005557654596041</v>
+        <v>1.008035442990725</v>
       </c>
       <c r="K24">
-        <v>1.01567206525886</v>
+        <v>1.020147723440073</v>
       </c>
       <c r="L24">
-        <v>1.000665463846963</v>
+        <v>1.003675447032352</v>
       </c>
       <c r="M24">
-        <v>1.010086443996092</v>
+        <v>1.02235669736952</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940558980505338</v>
+        <v>0.9923289726059723</v>
       </c>
       <c r="D25">
-        <v>1.015056046721169</v>
+        <v>1.015876736751104</v>
       </c>
       <c r="E25">
-        <v>1.001145392720268</v>
+        <v>0.9998017994850883</v>
       </c>
       <c r="F25">
-        <v>1.011507161392354</v>
+        <v>1.019127814774568</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044488421745151</v>
+        <v>1.042252465669459</v>
       </c>
       <c r="J25">
-        <v>1.018784974299598</v>
+        <v>1.017117284266583</v>
       </c>
       <c r="K25">
-        <v>1.027425047969296</v>
+        <v>1.028233486765702</v>
       </c>
       <c r="L25">
-        <v>1.013725953925309</v>
+        <v>1.012403193040589</v>
       </c>
       <c r="M25">
-        <v>1.023929431701806</v>
+        <v>1.03143627919638</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001850850063868</v>
+        <v>1.036035643358775</v>
       </c>
       <c r="D2">
-        <v>1.023186870033379</v>
+        <v>1.051173039120533</v>
       </c>
       <c r="E2">
-        <v>1.007648872523644</v>
+        <v>1.036811072013203</v>
       </c>
       <c r="F2">
-        <v>1.027206733611119</v>
+        <v>1.056476878629414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044933861600174</v>
+        <v>1.066242625140479</v>
       </c>
       <c r="J2">
-        <v>1.023976343098547</v>
+        <v>1.057189477396311</v>
       </c>
       <c r="K2">
-        <v>1.034332356353209</v>
+        <v>1.06196267829741</v>
       </c>
       <c r="L2">
-        <v>1.019002665077647</v>
+        <v>1.047780328146161</v>
       </c>
       <c r="M2">
-        <v>1.038299613883496</v>
+        <v>1.067201720121679</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008495492077578</v>
+        <v>1.042083299105727</v>
       </c>
       <c r="D3">
-        <v>1.028295034095892</v>
+        <v>1.055938231326288</v>
       </c>
       <c r="E3">
-        <v>1.013139479766373</v>
+        <v>1.041860610558644</v>
       </c>
       <c r="F3">
-        <v>1.032857262222366</v>
+        <v>1.061805502489142</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046780738603804</v>
+        <v>1.068835741353032</v>
       </c>
       <c r="J3">
-        <v>1.028757210475005</v>
+        <v>1.061488959430958</v>
       </c>
       <c r="K3">
-        <v>1.03857823584698</v>
+        <v>1.065902109862879</v>
       </c>
       <c r="L3">
-        <v>1.023606954238281</v>
+        <v>1.051984492303004</v>
       </c>
       <c r="M3">
-        <v>1.043086304807544</v>
+        <v>1.071704234893553</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012680559238355</v>
+        <v>1.045899539603889</v>
       </c>
       <c r="D4">
-        <v>1.031514846541488</v>
+        <v>1.058947672819562</v>
       </c>
       <c r="E4">
-        <v>1.016603894387237</v>
+        <v>1.045051203069361</v>
       </c>
       <c r="F4">
-        <v>1.036421400274559</v>
+        <v>1.065173205860078</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047932324470719</v>
+        <v>1.070461520288425</v>
       </c>
       <c r="J4">
-        <v>1.031765364521815</v>
+        <v>1.064197793436759</v>
       </c>
       <c r="K4">
-        <v>1.041247230746087</v>
+        <v>1.068383131117941</v>
       </c>
       <c r="L4">
-        <v>1.026505971615632</v>
+        <v>1.054634683804713</v>
       </c>
       <c r="M4">
-        <v>1.046099258704454</v>
+        <v>1.074543880067006</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014413927924571</v>
+        <v>1.047481713127569</v>
       </c>
       <c r="D5">
-        <v>1.032848921412525</v>
+        <v>1.060195883660825</v>
       </c>
       <c r="E5">
-        <v>1.018040191949203</v>
+        <v>1.046374935595855</v>
       </c>
       <c r="F5">
-        <v>1.037898741691601</v>
+        <v>1.066570604808436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048406430888893</v>
+        <v>1.071132977097661</v>
       </c>
       <c r="J5">
-        <v>1.033010489807625</v>
+        <v>1.065319781286867</v>
       </c>
       <c r="K5">
-        <v>1.042351338178592</v>
+        <v>1.069410516962191</v>
       </c>
       <c r="L5">
-        <v>1.027706389360633</v>
+        <v>1.055732713912409</v>
       </c>
       <c r="M5">
-        <v>1.04734661861862</v>
+        <v>1.075720735687524</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014703479476511</v>
+        <v>1.047746095917417</v>
       </c>
       <c r="D6">
-        <v>1.033071798980731</v>
+        <v>1.060404490147436</v>
       </c>
       <c r="E6">
-        <v>1.018280199650388</v>
+        <v>1.04659618659138</v>
       </c>
       <c r="F6">
-        <v>1.03814558978605</v>
+        <v>1.066804179486092</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048485458554086</v>
+        <v>1.071245025631749</v>
       </c>
       <c r="J6">
-        <v>1.033218434233862</v>
+        <v>1.065507202624424</v>
       </c>
       <c r="K6">
-        <v>1.042535693668245</v>
+        <v>1.069582121012006</v>
       </c>
       <c r="L6">
-        <v>1.027906894557319</v>
+        <v>1.055916152570788</v>
       </c>
       <c r="M6">
-        <v>1.047554950134222</v>
+        <v>1.075917362504024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012703821153246</v>
+        <v>1.045920766477084</v>
       </c>
       <c r="D7">
-        <v>1.031532748080215</v>
+        <v>1.058964417154865</v>
       </c>
       <c r="E7">
-        <v>1.016623164121584</v>
+        <v>1.045068958962804</v>
       </c>
       <c r="F7">
-        <v>1.036441221871166</v>
+        <v>1.065191949143301</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047938698386347</v>
+        <v>1.070470538970492</v>
       </c>
       <c r="J7">
-        <v>1.03178207738622</v>
+        <v>1.064212850607005</v>
       </c>
       <c r="K7">
-        <v>1.041262053320002</v>
+        <v>1.068396919696169</v>
       </c>
       <c r="L7">
-        <v>1.026522082551066</v>
+        <v>1.054649418156557</v>
       </c>
       <c r="M7">
-        <v>1.046116000614063</v>
+        <v>1.074559670862257</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004120994243632</v>
+        <v>1.038100213609378</v>
       </c>
       <c r="D8">
-        <v>1.02493148953524</v>
+        <v>1.052799236450332</v>
       </c>
       <c r="E8">
-        <v>1.009523382131107</v>
+        <v>1.038533982045288</v>
       </c>
       <c r="F8">
-        <v>1.029136079190382</v>
+        <v>1.058294852209673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045567263767164</v>
+        <v>1.067130064763011</v>
       </c>
       <c r="J8">
-        <v>1.025610326856141</v>
+        <v>1.058658118021068</v>
       </c>
       <c r="K8">
-        <v>1.035784014509987</v>
+        <v>1.063308527909883</v>
       </c>
       <c r="L8">
-        <v>1.020575880074428</v>
+        <v>1.049216107990485</v>
       </c>
       <c r="M8">
-        <v>1.039935333029346</v>
+        <v>1.068739099575184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9880530997979217</v>
+        <v>1.023525620366306</v>
       </c>
       <c r="D9">
-        <v>1.012598421241243</v>
+        <v>1.041332768163012</v>
       </c>
       <c r="E9">
-        <v>0.996286096206643</v>
+        <v>1.026391916747726</v>
       </c>
       <c r="F9">
-        <v>1.015507226709928</v>
+        <v>1.04548606877596</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041036672175978</v>
+        <v>1.060821963931776</v>
       </c>
       <c r="J9">
-        <v>1.014034904017958</v>
+        <v>1.048274130008251</v>
       </c>
       <c r="K9">
-        <v>1.025490352032728</v>
+        <v>1.05378904498696</v>
       </c>
       <c r="L9">
-        <v>1.009439717673706</v>
+        <v>1.039070838781939</v>
       </c>
       <c r="M9">
-        <v>1.028353622215002</v>
+        <v>1.057881887087295</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.976602443406147</v>
+        <v>1.013197744482174</v>
       </c>
       <c r="D10">
-        <v>1.003834386535972</v>
+        <v>1.033228094250944</v>
       </c>
       <c r="E10">
-        <v>0.9868959984014033</v>
+        <v>1.017817346798868</v>
       </c>
       <c r="F10">
-        <v>1.005834740769829</v>
+        <v>1.036444744073011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037750517367438</v>
+        <v>1.056298781737481</v>
       </c>
       <c r="J10">
-        <v>1.005776141423018</v>
+        <v>1.040897345750002</v>
       </c>
       <c r="K10">
-        <v>1.018134753354751</v>
+        <v>1.047022248749986</v>
       </c>
       <c r="L10">
-        <v>1.001505950154439</v>
+        <v>1.031872186633188</v>
       </c>
       <c r="M10">
-        <v>1.020099440284619</v>
+        <v>1.05018574431591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9714422720246577</v>
+        <v>1.008561061455241</v>
       </c>
       <c r="D11">
-        <v>0.9998928582802168</v>
+        <v>1.029595665814764</v>
       </c>
       <c r="E11">
-        <v>0.9826763338749165</v>
+        <v>1.013975974094968</v>
       </c>
       <c r="F11">
-        <v>1.001487402984627</v>
+        <v>1.032395218437217</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036257084629456</v>
+        <v>1.054256237198659</v>
       </c>
       <c r="J11">
-        <v>1.002053309555994</v>
+        <v>1.037581976773013</v>
       </c>
       <c r="K11">
-        <v>1.014816795419974</v>
+        <v>1.043980231047532</v>
       </c>
       <c r="L11">
-        <v>0.9979325147211787</v>
+        <v>1.028639050736779</v>
       </c>
       <c r="M11">
-        <v>1.016381323471617</v>
+        <v>1.04673101808458</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9694926292328686</v>
+        <v>1.006812193728473</v>
       </c>
       <c r="D12">
-        <v>0.9984050291184092</v>
+        <v>1.028226622454262</v>
       </c>
       <c r="E12">
-        <v>0.9810839851790334</v>
+        <v>1.012528416062192</v>
       </c>
       <c r="F12">
-        <v>0.9998467892243497</v>
+        <v>1.030869363028492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035691045836159</v>
+        <v>1.053484113945852</v>
       </c>
       <c r="J12">
-        <v>1.000646684305427</v>
+        <v>1.036331021486532</v>
       </c>
       <c r="K12">
-        <v>1.013562850180217</v>
+        <v>1.042832314276531</v>
       </c>
       <c r="L12">
-        <v>0.9965827862789084</v>
+        <v>1.027419464158152</v>
       </c>
       <c r="M12">
-        <v>1.014976925099556</v>
+        <v>1.045428124697023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9699123688935571</v>
+        <v>1.007188567289476</v>
       </c>
       <c r="D13">
-        <v>0.9987252791926973</v>
+        <v>1.028521205223728</v>
       </c>
       <c r="E13">
-        <v>0.9814267122640326</v>
+        <v>1.012839882763605</v>
       </c>
       <c r="F13">
-        <v>1.000199907924954</v>
+        <v>1.031197670364931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035812987354028</v>
+        <v>1.053650358748132</v>
       </c>
       <c r="J13">
-        <v>1.000949517517854</v>
+        <v>1.036600258970941</v>
       </c>
       <c r="K13">
-        <v>1.013832825506104</v>
+        <v>1.043079379575974</v>
       </c>
       <c r="L13">
-        <v>0.9968733496211483</v>
+        <v>1.02768193468602</v>
       </c>
       <c r="M13">
-        <v>1.015279257974056</v>
+        <v>1.045708511202415</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9712818016008437</v>
+        <v>1.008417053498686</v>
       </c>
       <c r="D14">
-        <v>0.9997703694964083</v>
+        <v>1.029482912158741</v>
       </c>
       <c r="E14">
-        <v>0.982545231025878</v>
+        <v>1.013856749317473</v>
       </c>
       <c r="F14">
-        <v>1.001352327881641</v>
+        <v>1.032269542008356</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036210530873414</v>
+        <v>1.054192692235617</v>
       </c>
       <c r="J14">
-        <v>1.001937533828137</v>
+        <v>1.037478977610732</v>
       </c>
       <c r="K14">
-        <v>1.014713592159948</v>
+        <v>1.043885717680571</v>
       </c>
       <c r="L14">
-        <v>0.997821412823244</v>
+        <v>1.028538627365127</v>
       </c>
       <c r="M14">
-        <v>1.016265721708427</v>
+        <v>1.046623729343822</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9721211090762227</v>
+        <v>1.00917038119993</v>
       </c>
       <c r="D15">
-        <v>1.000411079100614</v>
+        <v>1.030072786806993</v>
       </c>
       <c r="E15">
-        <v>0.983231017595481</v>
+        <v>1.014480487358268</v>
       </c>
       <c r="F15">
-        <v>1.002058889634329</v>
+        <v>1.032927038358878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036453948844849</v>
+        <v>1.054525036313197</v>
       </c>
       <c r="J15">
-        <v>1.002543073767699</v>
+        <v>1.038017763686929</v>
       </c>
       <c r="K15">
-        <v>1.015253362716429</v>
+        <v>1.044380110709955</v>
       </c>
       <c r="L15">
-        <v>0.9984025256629754</v>
+        <v>1.029063953486396</v>
       </c>
       <c r="M15">
-        <v>1.016870370168687</v>
+        <v>1.047184980421018</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.976940438011297</v>
+        <v>1.013501842262587</v>
       </c>
       <c r="D16">
-        <v>1.004092739060949</v>
+        <v>1.033466464970326</v>
       </c>
       <c r="E16">
-        <v>0.9871726491544235</v>
+        <v>1.018069462372383</v>
       </c>
       <c r="F16">
-        <v>1.006119748491124</v>
+        <v>1.036710540724689</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037848086530372</v>
+        <v>1.056432501626202</v>
       </c>
       <c r="J16">
-        <v>1.006019976619025</v>
+        <v>1.041114716867832</v>
       </c>
       <c r="K16">
-        <v>1.018352027210734</v>
+        <v>1.047221682562562</v>
       </c>
       <c r="L16">
-        <v>1.001740061495265</v>
+        <v>1.032084212435647</v>
       </c>
       <c r="M16">
-        <v>1.020343025459498</v>
+        <v>1.050412340375483</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.97990767098956</v>
+        <v>1.016173515696748</v>
       </c>
       <c r="D17">
-        <v>1.006361717301609</v>
+        <v>1.03556139855561</v>
       </c>
       <c r="E17">
-        <v>0.9896027145095322</v>
+        <v>1.020285379827448</v>
       </c>
       <c r="F17">
-        <v>1.008623135955637</v>
+        <v>1.039046812945977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038703232557679</v>
+        <v>1.057605970196337</v>
       </c>
       <c r="J17">
-        <v>1.00816048206152</v>
+        <v>1.04302405029658</v>
       </c>
       <c r="K17">
-        <v>1.020259114499006</v>
+        <v>1.048973370857336</v>
       </c>
       <c r="L17">
-        <v>1.003795535294201</v>
+        <v>1.033946841810994</v>
       </c>
       <c r="M17">
-        <v>1.022481640997967</v>
+        <v>1.052403177946407</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9816191106426724</v>
+        <v>1.017716106832913</v>
       </c>
       <c r="D18">
-        <v>1.007671151984654</v>
+        <v>1.036771560125297</v>
       </c>
       <c r="E18">
-        <v>0.9910054395864953</v>
+        <v>1.021565586725482</v>
       </c>
       <c r="F18">
-        <v>1.010068109989449</v>
+        <v>1.040396642687655</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039195274476636</v>
+        <v>1.058282391039013</v>
       </c>
       <c r="J18">
-        <v>1.009394973392634</v>
+        <v>1.044126133149437</v>
       </c>
       <c r="K18">
-        <v>1.021358772210647</v>
+        <v>1.049984383217404</v>
       </c>
       <c r="L18">
-        <v>1.004981258310717</v>
+        <v>1.035022170937153</v>
       </c>
       <c r="M18">
-        <v>1.023715288680605</v>
+        <v>1.053552698195644</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9821994679613028</v>
+        <v>1.018239472515741</v>
       </c>
       <c r="D19">
-        <v>1.008115306762765</v>
+        <v>1.037182234024614</v>
       </c>
       <c r="E19">
-        <v>0.9914812947384704</v>
+        <v>1.022000057967992</v>
       </c>
       <c r="F19">
-        <v>1.010558283879809</v>
+        <v>1.040854757546677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03936192365263</v>
+        <v>1.058511692225312</v>
       </c>
       <c r="J19">
-        <v>1.00981357359835</v>
+        <v>1.044499984257073</v>
       </c>
       <c r="K19">
-        <v>1.021731614487815</v>
+        <v>1.05032732772003</v>
       </c>
       <c r="L19">
-        <v>1.005383367536888</v>
+        <v>1.035386980838031</v>
       </c>
       <c r="M19">
-        <v>1.024133643273715</v>
+        <v>1.05394270722844</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9795913287031047</v>
+        <v>1.015888512465992</v>
       </c>
       <c r="D20">
-        <v>1.006119739725407</v>
+        <v>1.035337859309536</v>
       </c>
       <c r="E20">
-        <v>0.9893435240260823</v>
+        <v>1.020048914761567</v>
       </c>
       <c r="F20">
-        <v>1.008356132558918</v>
+        <v>1.038797495241696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038612186640067</v>
+        <v>1.057480905741994</v>
       </c>
       <c r="J20">
-        <v>1.007932289262575</v>
+        <v>1.042820405452941</v>
       </c>
       <c r="K20">
-        <v>1.020055827717334</v>
+        <v>1.04878654787755</v>
       </c>
       <c r="L20">
-        <v>1.003576379121599</v>
+        <v>1.033748157003557</v>
       </c>
       <c r="M20">
-        <v>1.022253623768011</v>
+        <v>1.052190799186681</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9708794689333303</v>
+        <v>1.008056045020242</v>
       </c>
       <c r="D21">
-        <v>0.9994632875478048</v>
+        <v>1.029200271111394</v>
       </c>
       <c r="E21">
-        <v>0.9822165608378238</v>
+        <v>1.013557890766023</v>
       </c>
       <c r="F21">
-        <v>1.001013698123363</v>
+        <v>1.031954513496856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036093782635864</v>
+        <v>1.05403336625023</v>
       </c>
       <c r="J21">
-        <v>1.001647259720121</v>
+        <v>1.037220765469022</v>
       </c>
       <c r="K21">
-        <v>1.01445483525043</v>
+        <v>1.043648777284296</v>
       </c>
       <c r="L21">
-        <v>0.9975428642673575</v>
+        <v>1.028286878090469</v>
       </c>
       <c r="M21">
-        <v>1.015975891099512</v>
+        <v>1.046354773938774</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9652099760329712</v>
+        <v>1.002976516799522</v>
       </c>
       <c r="D22">
-        <v>0.9951395784185707</v>
+        <v>1.025226037725015</v>
       </c>
       <c r="E22">
-        <v>0.9775899503057068</v>
+        <v>1.009356165020799</v>
       </c>
       <c r="F22">
-        <v>0.996246726751005</v>
+        <v>1.027525786531953</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034444501542064</v>
+        <v>1.051787588885165</v>
       </c>
       <c r="J22">
-        <v>0.9975568954979211</v>
+        <v>1.033586621056941</v>
       </c>
       <c r="K22">
-        <v>1.010807940058892</v>
+        <v>1.040313795955598</v>
       </c>
       <c r="L22">
-        <v>0.9936188218062523</v>
+        <v>1.024744525440884</v>
       </c>
       <c r="M22">
-        <v>1.011892905206218</v>
+        <v>1.042570987517563</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.968234623519494</v>
+        <v>1.005684629147467</v>
       </c>
       <c r="D23">
-        <v>0.9974454222371812</v>
+        <v>1.027344253676125</v>
       </c>
       <c r="E23">
-        <v>0.9800570927161807</v>
+        <v>1.011595507937272</v>
       </c>
       <c r="F23">
-        <v>0.9987887509577991</v>
+        <v>1.029886034325639</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035325320922841</v>
+        <v>1.052985821129324</v>
       </c>
       <c r="J23">
-        <v>0.999739062809047</v>
+        <v>1.035524360614704</v>
       </c>
       <c r="K23">
-        <v>1.012753666974959</v>
+        <v>1.042092069759029</v>
       </c>
       <c r="L23">
-        <v>0.9957120058252209</v>
+        <v>1.026633128767048</v>
       </c>
       <c r="M23">
-        <v>1.014070872339482</v>
+        <v>1.044588156150584</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9797343296081434</v>
+        <v>1.016017341695101</v>
       </c>
       <c r="D24">
-        <v>1.00622912217971</v>
+        <v>1.035438903372754</v>
       </c>
       <c r="E24">
-        <v>0.9894606863086394</v>
+        <v>1.02015580105514</v>
       </c>
       <c r="F24">
-        <v>1.008476826761026</v>
+        <v>1.038910190870393</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038653347178347</v>
+        <v>1.057537441782149</v>
       </c>
       <c r="J24">
-        <v>1.008035442990725</v>
+        <v>1.042912459542241</v>
       </c>
       <c r="K24">
-        <v>1.020147723440073</v>
+        <v>1.048870998176092</v>
       </c>
       <c r="L24">
-        <v>1.003675447032352</v>
+        <v>1.033837968362351</v>
       </c>
       <c r="M24">
-        <v>1.02235669736952</v>
+        <v>1.052286800072832</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9923289726059723</v>
+        <v>1.027395158173463</v>
       </c>
       <c r="D25">
-        <v>1.015876736751104</v>
+        <v>1.044373932667387</v>
       </c>
       <c r="E25">
-        <v>0.9998017994850883</v>
+        <v>1.029610909959396</v>
       </c>
       <c r="F25">
-        <v>1.019127814774568</v>
+        <v>1.048881112615738</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042252465669459</v>
+        <v>1.062506081105338</v>
       </c>
       <c r="J25">
-        <v>1.017117284266583</v>
+        <v>1.051034475910185</v>
       </c>
       <c r="K25">
-        <v>1.028233486765702</v>
+        <v>1.056320351074896</v>
       </c>
       <c r="L25">
-        <v>1.012403193040589</v>
+        <v>1.041766309152585</v>
       </c>
       <c r="M25">
-        <v>1.03143627919638</v>
+        <v>1.060765206133702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036035643358775</v>
+        <v>1.062034147892302</v>
       </c>
       <c r="D2">
-        <v>1.051173039120533</v>
+        <v>1.065475449410122</v>
       </c>
       <c r="E2">
-        <v>1.036811072013203</v>
+        <v>1.05753973487401</v>
       </c>
       <c r="F2">
-        <v>1.056476878629414</v>
+        <v>1.075063029343671</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066242625140479</v>
+        <v>1.056633681462054</v>
       </c>
       <c r="J2">
-        <v>1.057189477396311</v>
+        <v>1.067006753425096</v>
       </c>
       <c r="K2">
-        <v>1.06196267829741</v>
+        <v>1.068188589065257</v>
       </c>
       <c r="L2">
-        <v>1.047780328146161</v>
+        <v>1.060274426405624</v>
       </c>
       <c r="M2">
-        <v>1.067201720121679</v>
+        <v>1.077750589779763</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042083299105727</v>
+        <v>1.063255706570799</v>
       </c>
       <c r="D3">
-        <v>1.055938231326288</v>
+        <v>1.066448501941961</v>
       </c>
       <c r="E3">
-        <v>1.041860610558644</v>
+        <v>1.058595181580479</v>
       </c>
       <c r="F3">
-        <v>1.061805502489142</v>
+        <v>1.076178254674246</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068835741353032</v>
+        <v>1.057076319578799</v>
       </c>
       <c r="J3">
-        <v>1.061488959430958</v>
+        <v>1.067881291922823</v>
       </c>
       <c r="K3">
-        <v>1.065902109862879</v>
+        <v>1.068976653676613</v>
       </c>
       <c r="L3">
-        <v>1.051984492303004</v>
+        <v>1.06114311578966</v>
       </c>
       <c r="M3">
-        <v>1.071704234893553</v>
+        <v>1.07868232810221</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045899539603889</v>
+        <v>1.064045805260525</v>
       </c>
       <c r="D4">
-        <v>1.058947672819562</v>
+        <v>1.067077789068304</v>
       </c>
       <c r="E4">
-        <v>1.045051203069361</v>
+        <v>1.05927795070399</v>
       </c>
       <c r="F4">
-        <v>1.065173205860078</v>
+        <v>1.076899849272987</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070461520288425</v>
+        <v>1.057361299230851</v>
       </c>
       <c r="J4">
-        <v>1.064197793436759</v>
+        <v>1.068446298854741</v>
       </c>
       <c r="K4">
-        <v>1.068383131117941</v>
+        <v>1.069485620964163</v>
       </c>
       <c r="L4">
-        <v>1.054634683804713</v>
+        <v>1.061704438951586</v>
       </c>
       <c r="M4">
-        <v>1.074543880067006</v>
+        <v>1.079284600288027</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047481713127569</v>
+        <v>1.064377885438888</v>
       </c>
       <c r="D5">
-        <v>1.060195883660825</v>
+        <v>1.067342260232645</v>
       </c>
       <c r="E5">
-        <v>1.046374935595855</v>
+        <v>1.059564945989195</v>
       </c>
       <c r="F5">
-        <v>1.066570604808436</v>
+        <v>1.077203201433993</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071132977097661</v>
+        <v>1.057480761396079</v>
       </c>
       <c r="J5">
-        <v>1.065319781286867</v>
+        <v>1.06868361879074</v>
       </c>
       <c r="K5">
-        <v>1.069410516962191</v>
+        <v>1.069699361220947</v>
       </c>
       <c r="L5">
-        <v>1.055732713912409</v>
+        <v>1.061940234318301</v>
       </c>
       <c r="M5">
-        <v>1.075720735687524</v>
+        <v>1.079537647025396</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047746095917417</v>
+        <v>1.06443363868787</v>
       </c>
       <c r="D6">
-        <v>1.060404490147436</v>
+        <v>1.067386661374283</v>
       </c>
       <c r="E6">
-        <v>1.04659618659138</v>
+        <v>1.059613131398248</v>
       </c>
       <c r="F6">
-        <v>1.066804179486092</v>
+        <v>1.077254135266191</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071245025631749</v>
+        <v>1.057500799509335</v>
       </c>
       <c r="J6">
-        <v>1.065507202624424</v>
+        <v>1.068723453632727</v>
       </c>
       <c r="K6">
-        <v>1.069582121012006</v>
+        <v>1.069735235716426</v>
       </c>
       <c r="L6">
-        <v>1.055916152570788</v>
+        <v>1.061979814588258</v>
       </c>
       <c r="M6">
-        <v>1.075917362504024</v>
+        <v>1.079580126010291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045920766477084</v>
+        <v>1.064050242833343</v>
       </c>
       <c r="D7">
-        <v>1.058964417154865</v>
+        <v>1.067081323262594</v>
       </c>
       <c r="E7">
-        <v>1.045068958962804</v>
+        <v>1.059281785708124</v>
       </c>
       <c r="F7">
-        <v>1.065191949143301</v>
+        <v>1.076903902702358</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070470538970492</v>
+        <v>1.057362896838141</v>
       </c>
       <c r="J7">
-        <v>1.064212850607005</v>
+        <v>1.068449470754977</v>
       </c>
       <c r="K7">
-        <v>1.068396919696169</v>
+        <v>1.069488477872818</v>
       </c>
       <c r="L7">
-        <v>1.054649418156557</v>
+        <v>1.061707590385919</v>
       </c>
       <c r="M7">
-        <v>1.074559670862257</v>
+        <v>1.079287982093016</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.038100213609378</v>
+        <v>1.062447049226223</v>
       </c>
       <c r="D8">
-        <v>1.052799236450332</v>
+        <v>1.065804368649619</v>
       </c>
       <c r="E8">
-        <v>1.038533982045288</v>
+        <v>1.057896465057484</v>
       </c>
       <c r="F8">
-        <v>1.058294852209673</v>
+        <v>1.075439932032037</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067130064763011</v>
+        <v>1.056783571004552</v>
       </c>
       <c r="J8">
-        <v>1.058658118021068</v>
+        <v>1.067302490317588</v>
       </c>
       <c r="K8">
-        <v>1.063308527909883</v>
+        <v>1.068455119234661</v>
       </c>
       <c r="L8">
-        <v>1.049216107990485</v>
+        <v>1.060568165595362</v>
       </c>
       <c r="M8">
-        <v>1.068739099575184</v>
+        <v>1.078065605137443</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.023525620366306</v>
+        <v>1.059619387104342</v>
       </c>
       <c r="D9">
-        <v>1.041332768163012</v>
+        <v>1.063551541878763</v>
       </c>
       <c r="E9">
-        <v>1.026391916747726</v>
+        <v>1.05545395713438</v>
       </c>
       <c r="F9">
-        <v>1.04548606877596</v>
+        <v>1.072859940843584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060821963931776</v>
+        <v>1.055751689355346</v>
       </c>
       <c r="J9">
-        <v>1.048274130008251</v>
+        <v>1.065274585850065</v>
       </c>
       <c r="K9">
-        <v>1.05378904498696</v>
+        <v>1.066626786943491</v>
       </c>
       <c r="L9">
-        <v>1.039070838781939</v>
+        <v>1.058554352769365</v>
       </c>
       <c r="M9">
-        <v>1.057881887087295</v>
+        <v>1.075906786186152</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.013197744482174</v>
+        <v>1.057732380434309</v>
       </c>
       <c r="D10">
-        <v>1.033228094250944</v>
+        <v>1.062047799567592</v>
       </c>
       <c r="E10">
-        <v>1.017817346798868</v>
+        <v>1.053824604729987</v>
       </c>
       <c r="F10">
-        <v>1.036444744073011</v>
+        <v>1.07113967754168</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056298781737481</v>
+        <v>1.05505630348436</v>
       </c>
       <c r="J10">
-        <v>1.040897345750002</v>
+        <v>1.063918014069802</v>
       </c>
       <c r="K10">
-        <v>1.047022248749986</v>
+        <v>1.065402842981738</v>
       </c>
       <c r="L10">
-        <v>1.031872186633188</v>
+        <v>1.057207703999753</v>
       </c>
       <c r="M10">
-        <v>1.05018574431591</v>
+        <v>1.074464251830992</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008561061455241</v>
+        <v>1.056914805722598</v>
       </c>
       <c r="D11">
-        <v>1.029595665814764</v>
+        <v>1.06139620709749</v>
       </c>
       <c r="E11">
-        <v>1.013975974094968</v>
+        <v>1.05311881916987</v>
       </c>
       <c r="F11">
-        <v>1.032395218437217</v>
+        <v>1.070394703023537</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054256237198659</v>
+        <v>1.054753412690848</v>
       </c>
       <c r="J11">
-        <v>1.037581976773013</v>
+        <v>1.063329485991424</v>
       </c>
       <c r="K11">
-        <v>1.043980231047532</v>
+        <v>1.064871647354109</v>
       </c>
       <c r="L11">
-        <v>1.028639050736779</v>
+        <v>1.056623599350475</v>
       </c>
       <c r="M11">
-        <v>1.04673101808458</v>
+        <v>1.073838814068383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006812193728473</v>
+        <v>1.056611046047585</v>
       </c>
       <c r="D12">
-        <v>1.028226622454262</v>
+        <v>1.061154105837754</v>
       </c>
       <c r="E12">
-        <v>1.012528416062192</v>
+        <v>1.052856617534341</v>
       </c>
       <c r="F12">
-        <v>1.030869363028492</v>
+        <v>1.070117971298559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053484113945852</v>
+        <v>1.054640636544556</v>
       </c>
       <c r="J12">
-        <v>1.036331021486532</v>
+        <v>1.063110710009878</v>
       </c>
       <c r="K12">
-        <v>1.042832314276531</v>
+        <v>1.064674152980019</v>
       </c>
       <c r="L12">
-        <v>1.027419464158152</v>
+        <v>1.056406485574755</v>
       </c>
       <c r="M12">
-        <v>1.045428124697023</v>
+        <v>1.073606375284938</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007188567289476</v>
+        <v>1.056676207011923</v>
       </c>
       <c r="D13">
-        <v>1.028521205223728</v>
+        <v>1.061206040605968</v>
       </c>
       <c r="E13">
-        <v>1.012839882763605</v>
+        <v>1.052912862576939</v>
       </c>
       <c r="F13">
-        <v>1.031197670364931</v>
+        <v>1.070177331898729</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053650358748132</v>
+        <v>1.054664839600128</v>
       </c>
       <c r="J13">
-        <v>1.036600258970941</v>
+        <v>1.063157645940267</v>
       </c>
       <c r="K13">
-        <v>1.043079379575974</v>
+        <v>1.064716524572785</v>
       </c>
       <c r="L13">
-        <v>1.02768193468602</v>
+        <v>1.05645306408809</v>
       </c>
       <c r="M13">
-        <v>1.045708511202415</v>
+        <v>1.073656239799468</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008417053498686</v>
+        <v>1.056889698419339</v>
       </c>
       <c r="D14">
-        <v>1.029482912158741</v>
+        <v>1.061376196384191</v>
       </c>
       <c r="E14">
-        <v>1.013856749317473</v>
+        <v>1.053097146355833</v>
       </c>
       <c r="F14">
-        <v>1.032269542008356</v>
+        <v>1.070371828608618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054192692235617</v>
+        <v>1.054744096072973</v>
       </c>
       <c r="J14">
-        <v>1.037478977610732</v>
+        <v>1.063311405387201</v>
       </c>
       <c r="K14">
-        <v>1.043885717680571</v>
+        <v>1.064855326182806</v>
       </c>
       <c r="L14">
-        <v>1.028538627365127</v>
+        <v>1.056605655753455</v>
       </c>
       <c r="M14">
-        <v>1.046623729343822</v>
+        <v>1.073819603131201</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00917038119993</v>
+        <v>1.057021227368146</v>
       </c>
       <c r="D15">
-        <v>1.030072786806993</v>
+        <v>1.061481025551551</v>
       </c>
       <c r="E15">
-        <v>1.014480487358268</v>
+        <v>1.05321068413301</v>
       </c>
       <c r="F15">
-        <v>1.032927038358878</v>
+        <v>1.070491662411958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054525036313197</v>
+        <v>1.05479289292482</v>
       </c>
       <c r="J15">
-        <v>1.038017763686929</v>
+        <v>1.063406119021623</v>
       </c>
       <c r="K15">
-        <v>1.044380110709955</v>
+        <v>1.064940821923642</v>
       </c>
       <c r="L15">
-        <v>1.029063953486396</v>
+        <v>1.056699652419676</v>
       </c>
       <c r="M15">
-        <v>1.047184980421018</v>
+        <v>1.073920240280625</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013501842262587</v>
+        <v>1.057786629659597</v>
       </c>
       <c r="D16">
-        <v>1.033466464970326</v>
+        <v>1.062091033760145</v>
       </c>
       <c r="E16">
-        <v>1.018069462372383</v>
+        <v>1.053871439668224</v>
       </c>
       <c r="F16">
-        <v>1.036710540724689</v>
+        <v>1.071189117029986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056432501626202</v>
+        <v>1.055076367676162</v>
       </c>
       <c r="J16">
-        <v>1.041114716867832</v>
+        <v>1.063957048927608</v>
       </c>
       <c r="K16">
-        <v>1.047221682562562</v>
+        <v>1.065438070866301</v>
       </c>
       <c r="L16">
-        <v>1.032084212435647</v>
+        <v>1.057246447968112</v>
       </c>
       <c r="M16">
-        <v>1.050412340375483</v>
+        <v>1.074505742861161</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016173515696748</v>
+        <v>1.058266613672785</v>
       </c>
       <c r="D17">
-        <v>1.03556139855561</v>
+        <v>1.062473551099139</v>
       </c>
       <c r="E17">
-        <v>1.020285379827448</v>
+        <v>1.054285842018204</v>
       </c>
       <c r="F17">
-        <v>1.039046812945977</v>
+        <v>1.071626586869913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057605970196337</v>
+        <v>1.055253705549756</v>
       </c>
       <c r="J17">
-        <v>1.04302405029658</v>
+        <v>1.06430233073364</v>
       </c>
       <c r="K17">
-        <v>1.048973370857336</v>
+        <v>1.065749654421702</v>
       </c>
       <c r="L17">
-        <v>1.033946841810994</v>
+        <v>1.057589170401001</v>
       </c>
       <c r="M17">
-        <v>1.052403177946407</v>
+        <v>1.074872794991483</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.017716106832913</v>
+        <v>1.058546533286787</v>
       </c>
       <c r="D18">
-        <v>1.036771560125297</v>
+        <v>1.062696622497074</v>
       </c>
       <c r="E18">
-        <v>1.021565586725482</v>
+        <v>1.05452753041818</v>
       </c>
       <c r="F18">
-        <v>1.040396642687655</v>
+        <v>1.071881747135026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058282391039013</v>
+        <v>1.0553569716557</v>
       </c>
       <c r="J18">
-        <v>1.044126133149437</v>
+        <v>1.064503619476106</v>
       </c>
       <c r="K18">
-        <v>1.049984383217404</v>
+        <v>1.065931278239379</v>
       </c>
       <c r="L18">
-        <v>1.035022170937153</v>
+        <v>1.057788978521527</v>
       </c>
       <c r="M18">
-        <v>1.053552698195644</v>
+        <v>1.075086812156541</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.018239472515741</v>
+        <v>1.058641970759215</v>
       </c>
       <c r="D19">
-        <v>1.037182234024614</v>
+        <v>1.062772676573173</v>
       </c>
       <c r="E19">
-        <v>1.022000057967992</v>
+        <v>1.054609935643106</v>
       </c>
       <c r="F19">
-        <v>1.040854757546677</v>
+        <v>1.071968748799834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058511692225312</v>
+        <v>1.055392153571449</v>
       </c>
       <c r="J19">
-        <v>1.044499984257073</v>
+        <v>1.064572235416533</v>
       </c>
       <c r="K19">
-        <v>1.05032732772003</v>
+        <v>1.06599318736288</v>
       </c>
       <c r="L19">
-        <v>1.035386980838031</v>
+        <v>1.057857091676989</v>
       </c>
       <c r="M19">
-        <v>1.05394270722844</v>
+        <v>1.075159773272206</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.015888512465992</v>
+        <v>1.058215120806344</v>
       </c>
       <c r="D20">
-        <v>1.035337859309536</v>
+        <v>1.062432515221886</v>
       </c>
       <c r="E20">
-        <v>1.020048914761567</v>
+        <v>1.054241383216015</v>
       </c>
       <c r="F20">
-        <v>1.038797495241696</v>
+        <v>1.071579651387315</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057480905741994</v>
+        <v>1.05523469668041</v>
       </c>
       <c r="J20">
-        <v>1.042820405452941</v>
+        <v>1.064265296477691</v>
       </c>
       <c r="K20">
-        <v>1.04878654787755</v>
+        <v>1.065716236629761</v>
       </c>
       <c r="L20">
-        <v>1.033748157003557</v>
+        <v>1.057552409477064</v>
       </c>
       <c r="M20">
-        <v>1.052190799186681</v>
+        <v>1.074833421865234</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008056045020242</v>
+        <v>1.05682683264096</v>
       </c>
       <c r="D21">
-        <v>1.029200271111394</v>
+        <v>1.061326091714132</v>
       </c>
       <c r="E21">
-        <v>1.013557890766023</v>
+        <v>1.053042880533347</v>
       </c>
       <c r="F21">
-        <v>1.031954513496856</v>
+        <v>1.070314554602922</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05403336625023</v>
+        <v>1.054720764451224</v>
       </c>
       <c r="J21">
-        <v>1.037220765469022</v>
+        <v>1.063266131780919</v>
       </c>
       <c r="K21">
-        <v>1.043648777284296</v>
+        <v>1.064814457677176</v>
       </c>
       <c r="L21">
-        <v>1.028286878090469</v>
+        <v>1.056560725500277</v>
       </c>
       <c r="M21">
-        <v>1.046354773938774</v>
+        <v>1.073771500119098</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002976516799522</v>
+        <v>1.055953519599251</v>
       </c>
       <c r="D22">
-        <v>1.025226037725015</v>
+        <v>1.060630029005609</v>
       </c>
       <c r="E22">
-        <v>1.009356165020799</v>
+        <v>1.052289093692907</v>
       </c>
       <c r="F22">
-        <v>1.027525786531953</v>
+        <v>1.06951905034035</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051787588885165</v>
+        <v>1.054396077914056</v>
       </c>
       <c r="J22">
-        <v>1.033586621056941</v>
+        <v>1.062636930294858</v>
       </c>
       <c r="K22">
-        <v>1.040313795955598</v>
+        <v>1.064246404337744</v>
       </c>
       <c r="L22">
-        <v>1.024744525440884</v>
+        <v>1.055936338276087</v>
       </c>
       <c r="M22">
-        <v>1.042570987517563</v>
+        <v>1.073103113341125</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005684629147467</v>
+        <v>1.056416522071334</v>
       </c>
       <c r="D23">
-        <v>1.027344253676125</v>
+        <v>1.060999064372944</v>
       </c>
       <c r="E23">
-        <v>1.011595507937272</v>
+        <v>1.052688713706651</v>
       </c>
       <c r="F23">
-        <v>1.029886034325639</v>
+        <v>1.069940771058409</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052985821129324</v>
+        <v>1.054568348297302</v>
       </c>
       <c r="J23">
-        <v>1.035524360614704</v>
+        <v>1.062970576013991</v>
       </c>
       <c r="K23">
-        <v>1.042092069759029</v>
+        <v>1.064547641970697</v>
       </c>
       <c r="L23">
-        <v>1.026633128767048</v>
+        <v>1.056267421320328</v>
       </c>
       <c r="M23">
-        <v>1.044588156150584</v>
+        <v>1.073457506049172</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016017341695101</v>
+        <v>1.058238388361248</v>
       </c>
       <c r="D24">
-        <v>1.035438903372754</v>
+        <v>1.062451057706022</v>
       </c>
       <c r="E24">
-        <v>1.02015580105514</v>
+        <v>1.05426147231383</v>
       </c>
       <c r="F24">
-        <v>1.038910190870393</v>
+        <v>1.071600859537919</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057537441782149</v>
+        <v>1.055243286501952</v>
       </c>
       <c r="J24">
-        <v>1.042912459542241</v>
+        <v>1.064282030998487</v>
       </c>
       <c r="K24">
-        <v>1.048870998176092</v>
+        <v>1.065731337054902</v>
       </c>
       <c r="L24">
-        <v>1.033837968362351</v>
+        <v>1.057569020453151</v>
       </c>
       <c r="M24">
-        <v>1.052286800072832</v>
+        <v>1.074851213127677</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.027395158173463</v>
+        <v>1.060350730625429</v>
       </c>
       <c r="D25">
-        <v>1.044373932667387</v>
+        <v>1.06413427442144</v>
       </c>
       <c r="E25">
-        <v>1.029610909959396</v>
+        <v>1.056085577139643</v>
       </c>
       <c r="F25">
-        <v>1.048881112615738</v>
+        <v>1.073526972291282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062506081105338</v>
+        <v>1.056019767902092</v>
       </c>
       <c r="J25">
-        <v>1.051034475910185</v>
+        <v>1.065799659064445</v>
       </c>
       <c r="K25">
-        <v>1.056320351074896</v>
+        <v>1.067100340975132</v>
       </c>
       <c r="L25">
-        <v>1.041766309152585</v>
+        <v>1.059075690213775</v>
       </c>
       <c r="M25">
-        <v>1.060765206133702</v>
+        <v>1.076465472874763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062034147892302</v>
+        <v>1.036035643358776</v>
       </c>
       <c r="D2">
-        <v>1.065475449410122</v>
+        <v>1.051173039120534</v>
       </c>
       <c r="E2">
-        <v>1.05753973487401</v>
+        <v>1.036811072013204</v>
       </c>
       <c r="F2">
-        <v>1.075063029343671</v>
+        <v>1.056476878629414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056633681462054</v>
+        <v>1.066242625140479</v>
       </c>
       <c r="J2">
-        <v>1.067006753425096</v>
+        <v>1.057189477396311</v>
       </c>
       <c r="K2">
-        <v>1.068188589065257</v>
+        <v>1.061962678297411</v>
       </c>
       <c r="L2">
-        <v>1.060274426405624</v>
+        <v>1.047780328146162</v>
       </c>
       <c r="M2">
-        <v>1.077750589779763</v>
+        <v>1.067201720121679</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063255706570799</v>
+        <v>1.042083299105726</v>
       </c>
       <c r="D3">
-        <v>1.066448501941961</v>
+        <v>1.055938231326287</v>
       </c>
       <c r="E3">
-        <v>1.058595181580479</v>
+        <v>1.041860610558642</v>
       </c>
       <c r="F3">
-        <v>1.076178254674246</v>
+        <v>1.061805502489141</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057076319578799</v>
+        <v>1.068835741353032</v>
       </c>
       <c r="J3">
-        <v>1.067881291922823</v>
+        <v>1.061488959430957</v>
       </c>
       <c r="K3">
-        <v>1.068976653676613</v>
+        <v>1.065902109862878</v>
       </c>
       <c r="L3">
-        <v>1.06114311578966</v>
+        <v>1.051984492303003</v>
       </c>
       <c r="M3">
-        <v>1.07868232810221</v>
+        <v>1.071704234893552</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064045805260525</v>
+        <v>1.04589953960389</v>
       </c>
       <c r="D4">
-        <v>1.067077789068304</v>
+        <v>1.058947672819563</v>
       </c>
       <c r="E4">
-        <v>1.05927795070399</v>
+        <v>1.045051203069362</v>
       </c>
       <c r="F4">
-        <v>1.076899849272987</v>
+        <v>1.065173205860079</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057361299230851</v>
+        <v>1.070461520288426</v>
       </c>
       <c r="J4">
-        <v>1.068446298854741</v>
+        <v>1.064197793436759</v>
       </c>
       <c r="K4">
-        <v>1.069485620964163</v>
+        <v>1.068383131117942</v>
       </c>
       <c r="L4">
-        <v>1.061704438951586</v>
+        <v>1.054634683804713</v>
       </c>
       <c r="M4">
-        <v>1.079284600288027</v>
+        <v>1.074543880067007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064377885438888</v>
+        <v>1.047481713127568</v>
       </c>
       <c r="D5">
-        <v>1.067342260232645</v>
+        <v>1.060195883660824</v>
       </c>
       <c r="E5">
-        <v>1.059564945989195</v>
+        <v>1.046374935595854</v>
       </c>
       <c r="F5">
-        <v>1.077203201433993</v>
+        <v>1.066570604808435</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057480761396079</v>
+        <v>1.07113297709766</v>
       </c>
       <c r="J5">
-        <v>1.06868361879074</v>
+        <v>1.065319781286866</v>
       </c>
       <c r="K5">
-        <v>1.069699361220947</v>
+        <v>1.06941051696219</v>
       </c>
       <c r="L5">
-        <v>1.061940234318301</v>
+        <v>1.055732713912408</v>
       </c>
       <c r="M5">
-        <v>1.079537647025396</v>
+        <v>1.075720735687523</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06443363868787</v>
+        <v>1.047746095917416</v>
       </c>
       <c r="D6">
-        <v>1.067386661374283</v>
+        <v>1.060404490147436</v>
       </c>
       <c r="E6">
-        <v>1.059613131398248</v>
+        <v>1.04659618659138</v>
       </c>
       <c r="F6">
-        <v>1.077254135266191</v>
+        <v>1.066804179486091</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057500799509335</v>
+        <v>1.071245025631749</v>
       </c>
       <c r="J6">
-        <v>1.068723453632727</v>
+        <v>1.065507202624423</v>
       </c>
       <c r="K6">
-        <v>1.069735235716426</v>
+        <v>1.069582121012006</v>
       </c>
       <c r="L6">
-        <v>1.061979814588258</v>
+        <v>1.055916152570787</v>
       </c>
       <c r="M6">
-        <v>1.079580126010291</v>
+        <v>1.075917362504024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064050242833343</v>
+        <v>1.045920766477083</v>
       </c>
       <c r="D7">
-        <v>1.067081323262594</v>
+        <v>1.058964417154864</v>
       </c>
       <c r="E7">
-        <v>1.059281785708124</v>
+        <v>1.045068958962803</v>
       </c>
       <c r="F7">
-        <v>1.076903902702358</v>
+        <v>1.0651919491433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057362896838141</v>
+        <v>1.070470538970492</v>
       </c>
       <c r="J7">
-        <v>1.068449470754977</v>
+        <v>1.064212850607004</v>
       </c>
       <c r="K7">
-        <v>1.069488477872818</v>
+        <v>1.068396919696168</v>
       </c>
       <c r="L7">
-        <v>1.061707590385919</v>
+        <v>1.054649418156556</v>
       </c>
       <c r="M7">
-        <v>1.079287982093016</v>
+        <v>1.074559670862256</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062447049226223</v>
+        <v>1.038100213609377</v>
       </c>
       <c r="D8">
-        <v>1.065804368649619</v>
+        <v>1.05279923645033</v>
       </c>
       <c r="E8">
-        <v>1.057896465057484</v>
+        <v>1.038533982045286</v>
       </c>
       <c r="F8">
-        <v>1.075439932032037</v>
+        <v>1.058294852209672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056783571004552</v>
+        <v>1.06713006476301</v>
       </c>
       <c r="J8">
-        <v>1.067302490317588</v>
+        <v>1.058658118021067</v>
       </c>
       <c r="K8">
-        <v>1.068455119234661</v>
+        <v>1.063308527909882</v>
       </c>
       <c r="L8">
-        <v>1.060568165595362</v>
+        <v>1.049216107990484</v>
       </c>
       <c r="M8">
-        <v>1.078065605137443</v>
+        <v>1.068739099575183</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059619387104342</v>
+        <v>1.023525620366305</v>
       </c>
       <c r="D9">
-        <v>1.063551541878763</v>
+        <v>1.04133276816301</v>
       </c>
       <c r="E9">
-        <v>1.05545395713438</v>
+        <v>1.026391916747725</v>
       </c>
       <c r="F9">
-        <v>1.072859940843584</v>
+        <v>1.045486068775957</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055751689355346</v>
+        <v>1.060821963931775</v>
       </c>
       <c r="J9">
-        <v>1.065274585850065</v>
+        <v>1.048274130008249</v>
       </c>
       <c r="K9">
-        <v>1.066626786943491</v>
+        <v>1.053789044986958</v>
       </c>
       <c r="L9">
-        <v>1.058554352769365</v>
+        <v>1.039070838781937</v>
       </c>
       <c r="M9">
-        <v>1.075906786186152</v>
+        <v>1.057881887087293</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057732380434309</v>
+        <v>1.013197744482175</v>
       </c>
       <c r="D10">
-        <v>1.062047799567592</v>
+        <v>1.033228094250944</v>
       </c>
       <c r="E10">
-        <v>1.053824604729987</v>
+        <v>1.017817346798869</v>
       </c>
       <c r="F10">
-        <v>1.07113967754168</v>
+        <v>1.036444744073012</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05505630348436</v>
+        <v>1.056298781737481</v>
       </c>
       <c r="J10">
-        <v>1.063918014069802</v>
+        <v>1.040897345750003</v>
       </c>
       <c r="K10">
-        <v>1.065402842981738</v>
+        <v>1.047022248749987</v>
       </c>
       <c r="L10">
-        <v>1.057207703999753</v>
+        <v>1.031872186633188</v>
       </c>
       <c r="M10">
-        <v>1.074464251830992</v>
+        <v>1.05018574431591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056914805722598</v>
+        <v>1.008561061455242</v>
       </c>
       <c r="D11">
-        <v>1.06139620709749</v>
+        <v>1.029595665814765</v>
       </c>
       <c r="E11">
-        <v>1.05311881916987</v>
+        <v>1.013975974094969</v>
       </c>
       <c r="F11">
-        <v>1.070394703023537</v>
+        <v>1.032395218437218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054753412690848</v>
+        <v>1.05425623719866</v>
       </c>
       <c r="J11">
-        <v>1.063329485991424</v>
+        <v>1.037581976773015</v>
       </c>
       <c r="K11">
-        <v>1.064871647354109</v>
+        <v>1.043980231047533</v>
       </c>
       <c r="L11">
-        <v>1.056623599350475</v>
+        <v>1.02863905073678</v>
       </c>
       <c r="M11">
-        <v>1.073838814068383</v>
+        <v>1.046731018084581</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056611046047585</v>
+        <v>1.006812193728473</v>
       </c>
       <c r="D12">
-        <v>1.061154105837754</v>
+        <v>1.028226622454261</v>
       </c>
       <c r="E12">
-        <v>1.052856617534341</v>
+        <v>1.012528416062193</v>
       </c>
       <c r="F12">
-        <v>1.070117971298559</v>
+        <v>1.030869363028492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054640636544556</v>
+        <v>1.053484113945852</v>
       </c>
       <c r="J12">
-        <v>1.063110710009878</v>
+        <v>1.036331021486532</v>
       </c>
       <c r="K12">
-        <v>1.064674152980019</v>
+        <v>1.04283231427653</v>
       </c>
       <c r="L12">
-        <v>1.056406485574755</v>
+        <v>1.027419464158152</v>
       </c>
       <c r="M12">
-        <v>1.073606375284938</v>
+        <v>1.045428124697023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056676207011923</v>
+        <v>1.007188567289477</v>
       </c>
       <c r="D13">
-        <v>1.061206040605968</v>
+        <v>1.028521205223729</v>
       </c>
       <c r="E13">
-        <v>1.052912862576939</v>
+        <v>1.012839882763606</v>
       </c>
       <c r="F13">
-        <v>1.070177331898729</v>
+        <v>1.031197670364933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054664839600128</v>
+        <v>1.053650358748133</v>
       </c>
       <c r="J13">
-        <v>1.063157645940267</v>
+        <v>1.036600258970942</v>
       </c>
       <c r="K13">
-        <v>1.064716524572785</v>
+        <v>1.043079379575975</v>
       </c>
       <c r="L13">
-        <v>1.05645306408809</v>
+        <v>1.027681934686021</v>
       </c>
       <c r="M13">
-        <v>1.073656239799468</v>
+        <v>1.045708511202416</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056889698419339</v>
+        <v>1.008417053498685</v>
       </c>
       <c r="D14">
-        <v>1.061376196384191</v>
+        <v>1.02948291215874</v>
       </c>
       <c r="E14">
-        <v>1.053097146355833</v>
+        <v>1.013856749317472</v>
       </c>
       <c r="F14">
-        <v>1.070371828608618</v>
+        <v>1.032269542008354</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054744096072973</v>
+        <v>1.054192692235616</v>
       </c>
       <c r="J14">
-        <v>1.063311405387201</v>
+        <v>1.03747897761073</v>
       </c>
       <c r="K14">
-        <v>1.064855326182806</v>
+        <v>1.04388571768057</v>
       </c>
       <c r="L14">
-        <v>1.056605655753455</v>
+        <v>1.028538627365125</v>
       </c>
       <c r="M14">
-        <v>1.073819603131201</v>
+        <v>1.046623729343821</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057021227368146</v>
+        <v>1.009170381199934</v>
       </c>
       <c r="D15">
-        <v>1.061481025551551</v>
+        <v>1.030072786806997</v>
       </c>
       <c r="E15">
-        <v>1.05321068413301</v>
+        <v>1.014480487358271</v>
       </c>
       <c r="F15">
-        <v>1.070491662411958</v>
+        <v>1.032927038358881</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05479289292482</v>
+        <v>1.054525036313199</v>
       </c>
       <c r="J15">
-        <v>1.063406119021623</v>
+        <v>1.038017763686932</v>
       </c>
       <c r="K15">
-        <v>1.064940821923642</v>
+        <v>1.044380110709958</v>
       </c>
       <c r="L15">
-        <v>1.056699652419676</v>
+        <v>1.029063953486399</v>
       </c>
       <c r="M15">
-        <v>1.073920240280625</v>
+        <v>1.047184980421021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057786629659597</v>
+        <v>1.013501842262587</v>
       </c>
       <c r="D16">
-        <v>1.062091033760145</v>
+        <v>1.033466464970326</v>
       </c>
       <c r="E16">
-        <v>1.053871439668224</v>
+        <v>1.018069462372383</v>
       </c>
       <c r="F16">
-        <v>1.071189117029986</v>
+        <v>1.036710540724689</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055076367676162</v>
+        <v>1.056432501626202</v>
       </c>
       <c r="J16">
-        <v>1.063957048927608</v>
+        <v>1.041114716867832</v>
       </c>
       <c r="K16">
-        <v>1.065438070866301</v>
+        <v>1.047221682562562</v>
       </c>
       <c r="L16">
-        <v>1.057246447968112</v>
+        <v>1.032084212435647</v>
       </c>
       <c r="M16">
-        <v>1.074505742861161</v>
+        <v>1.050412340375483</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058266613672785</v>
+        <v>1.016173515696748</v>
       </c>
       <c r="D17">
-        <v>1.062473551099139</v>
+        <v>1.035561398555609</v>
       </c>
       <c r="E17">
-        <v>1.054285842018204</v>
+        <v>1.020285379827447</v>
       </c>
       <c r="F17">
-        <v>1.071626586869913</v>
+        <v>1.039046812945977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055253705549756</v>
+        <v>1.057605970196336</v>
       </c>
       <c r="J17">
-        <v>1.06430233073364</v>
+        <v>1.043024050296579</v>
       </c>
       <c r="K17">
-        <v>1.065749654421702</v>
+        <v>1.048973370857335</v>
       </c>
       <c r="L17">
-        <v>1.057589170401001</v>
+        <v>1.033946841810993</v>
       </c>
       <c r="M17">
-        <v>1.074872794991483</v>
+        <v>1.052403177946406</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058546533286787</v>
+        <v>1.017716106832914</v>
       </c>
       <c r="D18">
-        <v>1.062696622497074</v>
+        <v>1.036771560125298</v>
       </c>
       <c r="E18">
-        <v>1.05452753041818</v>
+        <v>1.021565586725483</v>
       </c>
       <c r="F18">
-        <v>1.071881747135026</v>
+        <v>1.040396642687656</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0553569716557</v>
+        <v>1.058282391039014</v>
       </c>
       <c r="J18">
-        <v>1.064503619476106</v>
+        <v>1.044126133149438</v>
       </c>
       <c r="K18">
-        <v>1.065931278239379</v>
+        <v>1.049984383217405</v>
       </c>
       <c r="L18">
-        <v>1.057788978521527</v>
+        <v>1.035022170937154</v>
       </c>
       <c r="M18">
-        <v>1.075086812156541</v>
+        <v>1.053552698195646</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058641970759215</v>
+        <v>1.018239472515738</v>
       </c>
       <c r="D19">
-        <v>1.062772676573173</v>
+        <v>1.037182234024612</v>
       </c>
       <c r="E19">
-        <v>1.054609935643106</v>
+        <v>1.022000057967989</v>
       </c>
       <c r="F19">
-        <v>1.071968748799834</v>
+        <v>1.040854757546674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055392153571449</v>
+        <v>1.058511692225311</v>
       </c>
       <c r="J19">
-        <v>1.064572235416533</v>
+        <v>1.04449998425707</v>
       </c>
       <c r="K19">
-        <v>1.06599318736288</v>
+        <v>1.050327327720027</v>
       </c>
       <c r="L19">
-        <v>1.057857091676989</v>
+        <v>1.035386980838028</v>
       </c>
       <c r="M19">
-        <v>1.075159773272206</v>
+        <v>1.053942707228437</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058215120806344</v>
+        <v>1.015888512465992</v>
       </c>
       <c r="D20">
-        <v>1.062432515221886</v>
+        <v>1.035337859309537</v>
       </c>
       <c r="E20">
-        <v>1.054241383216015</v>
+        <v>1.020048914761568</v>
       </c>
       <c r="F20">
-        <v>1.071579651387315</v>
+        <v>1.038797495241696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05523469668041</v>
+        <v>1.057480905741994</v>
       </c>
       <c r="J20">
-        <v>1.064265296477691</v>
+        <v>1.042820405452942</v>
       </c>
       <c r="K20">
-        <v>1.065716236629761</v>
+        <v>1.04878654787755</v>
       </c>
       <c r="L20">
-        <v>1.057552409477064</v>
+        <v>1.033748157003557</v>
       </c>
       <c r="M20">
-        <v>1.074833421865234</v>
+        <v>1.052190799186681</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05682683264096</v>
+        <v>1.008056045020238</v>
       </c>
       <c r="D21">
-        <v>1.061326091714132</v>
+        <v>1.02920027111139</v>
       </c>
       <c r="E21">
-        <v>1.053042880533347</v>
+        <v>1.01355789076602</v>
       </c>
       <c r="F21">
-        <v>1.070314554602922</v>
+        <v>1.031954513496852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054720764451224</v>
+        <v>1.054033366250228</v>
       </c>
       <c r="J21">
-        <v>1.063266131780919</v>
+        <v>1.037220765469019</v>
       </c>
       <c r="K21">
-        <v>1.064814457677176</v>
+        <v>1.043648777284292</v>
       </c>
       <c r="L21">
-        <v>1.056560725500277</v>
+        <v>1.028286878090466</v>
       </c>
       <c r="M21">
-        <v>1.073771500119098</v>
+        <v>1.04635477393877</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055953519599251</v>
+        <v>1.002976516799522</v>
       </c>
       <c r="D22">
-        <v>1.060630029005609</v>
+        <v>1.025226037725016</v>
       </c>
       <c r="E22">
-        <v>1.052289093692907</v>
+        <v>1.0093561650208</v>
       </c>
       <c r="F22">
-        <v>1.06951905034035</v>
+        <v>1.027525786531953</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054396077914056</v>
+        <v>1.051787588885166</v>
       </c>
       <c r="J22">
-        <v>1.062636930294858</v>
+        <v>1.033586621056941</v>
       </c>
       <c r="K22">
-        <v>1.064246404337744</v>
+        <v>1.040313795955599</v>
       </c>
       <c r="L22">
-        <v>1.055936338276087</v>
+        <v>1.024744525440884</v>
       </c>
       <c r="M22">
-        <v>1.073103113341125</v>
+        <v>1.042570987517564</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.056416522071334</v>
+        <v>1.005684629147466</v>
       </c>
       <c r="D23">
-        <v>1.060999064372944</v>
+        <v>1.027344253676124</v>
       </c>
       <c r="E23">
-        <v>1.052688713706651</v>
+        <v>1.011595507937271</v>
       </c>
       <c r="F23">
-        <v>1.069940771058409</v>
+        <v>1.029886034325637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054568348297302</v>
+        <v>1.052985821129324</v>
       </c>
       <c r="J23">
-        <v>1.062970576013991</v>
+        <v>1.035524360614703</v>
       </c>
       <c r="K23">
-        <v>1.064547641970697</v>
+        <v>1.042092069759028</v>
       </c>
       <c r="L23">
-        <v>1.056267421320328</v>
+        <v>1.026633128767046</v>
       </c>
       <c r="M23">
-        <v>1.073457506049172</v>
+        <v>1.044588156150582</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058238388361248</v>
+        <v>1.0160173416951</v>
       </c>
       <c r="D24">
-        <v>1.062451057706022</v>
+        <v>1.035438903372752</v>
       </c>
       <c r="E24">
-        <v>1.05426147231383</v>
+        <v>1.020155801055139</v>
       </c>
       <c r="F24">
-        <v>1.071600859537919</v>
+        <v>1.038910190870391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055243286501952</v>
+        <v>1.057537441782149</v>
       </c>
       <c r="J24">
-        <v>1.064282030998487</v>
+        <v>1.042912459542239</v>
       </c>
       <c r="K24">
-        <v>1.065731337054902</v>
+        <v>1.048870998176092</v>
       </c>
       <c r="L24">
-        <v>1.057569020453151</v>
+        <v>1.033837968362349</v>
       </c>
       <c r="M24">
-        <v>1.074851213127677</v>
+        <v>1.052286800072832</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060350730625429</v>
+        <v>1.027395158173464</v>
       </c>
       <c r="D25">
-        <v>1.06413427442144</v>
+        <v>1.044373932667387</v>
       </c>
       <c r="E25">
-        <v>1.056085577139643</v>
+        <v>1.029610909959397</v>
       </c>
       <c r="F25">
-        <v>1.073526972291282</v>
+        <v>1.04888111261574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056019767902092</v>
+        <v>1.062506081105338</v>
       </c>
       <c r="J25">
-        <v>1.065799659064445</v>
+        <v>1.051034475910186</v>
       </c>
       <c r="K25">
-        <v>1.067100340975132</v>
+        <v>1.056320351074896</v>
       </c>
       <c r="L25">
-        <v>1.059075690213775</v>
+        <v>1.041766309152586</v>
       </c>
       <c r="M25">
-        <v>1.076465472874763</v>
+        <v>1.060765206133703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036035643358776</v>
+        <v>1.00266611381844</v>
       </c>
       <c r="D2">
-        <v>1.051173039120534</v>
+        <v>1.0263537948482</v>
       </c>
       <c r="E2">
-        <v>1.036811072013204</v>
+        <v>1.008712686886666</v>
       </c>
       <c r="F2">
-        <v>1.056476878629414</v>
+        <v>1.033172864418286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066242625140479</v>
+        <v>1.046777109496873</v>
       </c>
       <c r="J2">
-        <v>1.057189477396311</v>
+        <v>1.024767373254311</v>
       </c>
       <c r="K2">
-        <v>1.061962678297411</v>
+        <v>1.037457793984562</v>
       </c>
       <c r="L2">
-        <v>1.047780328146162</v>
+        <v>1.020051960111203</v>
       </c>
       <c r="M2">
-        <v>1.067201720121679</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.044188612369241</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043544706845072</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037556170428332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042083299105726</v>
+        <v>1.006441978832432</v>
       </c>
       <c r="D3">
-        <v>1.055938231326287</v>
+        <v>1.028783412127013</v>
       </c>
       <c r="E3">
-        <v>1.041860610558642</v>
+        <v>1.011682711203756</v>
       </c>
       <c r="F3">
-        <v>1.061805502489141</v>
+        <v>1.035696107711028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068835741353032</v>
+        <v>1.047398277802297</v>
       </c>
       <c r="J3">
-        <v>1.061488959430957</v>
+        <v>1.026758556355962</v>
       </c>
       <c r="K3">
-        <v>1.065902109862878</v>
+        <v>1.039060787778568</v>
       </c>
       <c r="L3">
-        <v>1.051984492303003</v>
+        <v>1.022168260385354</v>
       </c>
       <c r="M3">
-        <v>1.071704234893552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.045891747819219</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044892617455151</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038686961025388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04589953960389</v>
+        <v>1.008844472230165</v>
       </c>
       <c r="D4">
-        <v>1.058947672819563</v>
+        <v>1.030333037720126</v>
       </c>
       <c r="E4">
-        <v>1.045051203069362</v>
+        <v>1.013578415456547</v>
       </c>
       <c r="F4">
-        <v>1.065173205860079</v>
+        <v>1.037307520484192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070461520288426</v>
+        <v>1.047784455660892</v>
       </c>
       <c r="J4">
-        <v>1.064197793436759</v>
+        <v>1.0280246097943</v>
       </c>
       <c r="K4">
-        <v>1.068383131117942</v>
+        <v>1.040078650723884</v>
       </c>
       <c r="L4">
-        <v>1.054634683804713</v>
+        <v>1.023515677311938</v>
       </c>
       <c r="M4">
-        <v>1.074543880067007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.046975599183612</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045750407452228</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039407575502948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047481713127568</v>
+        <v>1.009848231284173</v>
       </c>
       <c r="D5">
-        <v>1.060195883660824</v>
+        <v>1.030983237775026</v>
       </c>
       <c r="E5">
-        <v>1.046374935595854</v>
+        <v>1.014372221231688</v>
       </c>
       <c r="F5">
-        <v>1.066570604808435</v>
+        <v>1.037982850350193</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07113297709766</v>
+        <v>1.047944995413091</v>
       </c>
       <c r="J5">
-        <v>1.065319781286866</v>
+        <v>1.028554767943273</v>
       </c>
       <c r="K5">
-        <v>1.06941051696219</v>
+        <v>1.040505970474655</v>
       </c>
       <c r="L5">
-        <v>1.055732713912408</v>
+        <v>1.024079896261305</v>
       </c>
       <c r="M5">
-        <v>1.075720735687523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.047429824379668</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046109893558367</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039716900215652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047746095917416</v>
+        <v>1.010020133790075</v>
       </c>
       <c r="D6">
-        <v>1.060404490147436</v>
+        <v>1.031096969443095</v>
       </c>
       <c r="E6">
-        <v>1.04659618659138</v>
+        <v>1.014508718531144</v>
       </c>
       <c r="F6">
-        <v>1.066804179486091</v>
+        <v>1.038099441223406</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071245025631749</v>
+        <v>1.047974070696507</v>
       </c>
       <c r="J6">
-        <v>1.065507202624423</v>
+        <v>1.028647300740796</v>
       </c>
       <c r="K6">
-        <v>1.069582121012006</v>
+        <v>1.040582268082755</v>
       </c>
       <c r="L6">
-        <v>1.055916152570787</v>
+        <v>1.024177859091694</v>
       </c>
       <c r="M6">
-        <v>1.075917362504024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.04750929464541</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046172788458141</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039779596542788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045920766477083</v>
+        <v>1.008868461080653</v>
       </c>
       <c r="D7">
-        <v>1.058964417154864</v>
+        <v>1.03035481170683</v>
       </c>
       <c r="E7">
-        <v>1.045068958962803</v>
+        <v>1.013598653142528</v>
       </c>
       <c r="F7">
-        <v>1.0651919491433</v>
+        <v>1.037325940034137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070470538970492</v>
+        <v>1.047792901944858</v>
       </c>
       <c r="J7">
-        <v>1.064212850607004</v>
+        <v>1.028041990735279</v>
       </c>
       <c r="K7">
-        <v>1.068396919696168</v>
+        <v>1.040097297378951</v>
       </c>
       <c r="L7">
-        <v>1.054649418156556</v>
+        <v>1.023532731474978</v>
       </c>
       <c r="M7">
-        <v>1.074559670862256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.046990958212578</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045762563006058</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039440881026825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038100213609377</v>
+        <v>1.003964037944005</v>
       </c>
       <c r="D8">
-        <v>1.05279923645033</v>
+        <v>1.027195882825954</v>
       </c>
       <c r="E8">
-        <v>1.038533982045286</v>
+        <v>1.009734019918052</v>
       </c>
       <c r="F8">
-        <v>1.058294852209672</v>
+        <v>1.034041791710369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06713006476301</v>
+        <v>1.046998184227914</v>
       </c>
       <c r="J8">
-        <v>1.058658118021067</v>
+        <v>1.025457873468904</v>
       </c>
       <c r="K8">
-        <v>1.063308527909882</v>
+        <v>1.038019650839901</v>
       </c>
       <c r="L8">
-        <v>1.049216107990484</v>
+        <v>1.020783732509471</v>
       </c>
       <c r="M8">
-        <v>1.068739099575183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.044779573754155</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044012411043707</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037976382221627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023525620366305</v>
+        <v>0.9949790584634119</v>
       </c>
       <c r="D9">
-        <v>1.04133276816301</v>
+        <v>1.021430285819322</v>
       </c>
       <c r="E9">
-        <v>1.026391916747725</v>
+        <v>1.002700496030492</v>
       </c>
       <c r="F9">
-        <v>1.045486068775957</v>
+        <v>1.028070743152367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060821963931775</v>
+        <v>1.045464912087189</v>
       </c>
       <c r="J9">
-        <v>1.048274130008249</v>
+        <v>1.020710373549189</v>
       </c>
       <c r="K9">
-        <v>1.053789044986958</v>
+        <v>1.034184983287761</v>
       </c>
       <c r="L9">
-        <v>1.039070838781937</v>
+        <v>1.015749910989495</v>
       </c>
       <c r="M9">
-        <v>1.057881887087293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.040724236637477</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04080289207623</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035261829422741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013197744482175</v>
+        <v>0.9888043601793396</v>
       </c>
       <c r="D10">
-        <v>1.033228094250944</v>
+        <v>1.017515785279083</v>
       </c>
       <c r="E10">
-        <v>1.017817346798869</v>
+        <v>0.9979092214050259</v>
       </c>
       <c r="F10">
-        <v>1.036444744073012</v>
+        <v>1.024077618998168</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056298781737481</v>
+        <v>1.044388755787147</v>
       </c>
       <c r="J10">
-        <v>1.040897345750003</v>
+        <v>1.017469321767471</v>
       </c>
       <c r="K10">
-        <v>1.047022248749987</v>
+        <v>1.03157582814997</v>
       </c>
       <c r="L10">
-        <v>1.031872186633188</v>
+        <v>1.012316328394526</v>
       </c>
       <c r="M10">
-        <v>1.05018574431591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.038025339745429</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038718317276627</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033433835740475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008561061455242</v>
+        <v>0.9864918399832966</v>
       </c>
       <c r="D11">
-        <v>1.029595665814765</v>
+        <v>1.016234040784296</v>
       </c>
       <c r="E11">
-        <v>1.013975974094969</v>
+        <v>0.9961805913299532</v>
       </c>
       <c r="F11">
-        <v>1.032395218437218</v>
+        <v>1.023176268996526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05425623719866</v>
+        <v>1.044147105329233</v>
       </c>
       <c r="J11">
-        <v>1.037581976773015</v>
+        <v>1.016437575396001</v>
       </c>
       <c r="K11">
-        <v>1.043980231047533</v>
+        <v>1.030856165951324</v>
       </c>
       <c r="L11">
-        <v>1.02863905073678</v>
+        <v>1.011174897348893</v>
       </c>
       <c r="M11">
-        <v>1.046731018084581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.037673961521841</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038876248970785</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032957933200494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006812193728473</v>
+        <v>0.9857701679171478</v>
       </c>
       <c r="D12">
-        <v>1.028226622454261</v>
+        <v>1.015904164448169</v>
       </c>
       <c r="E12">
-        <v>1.012528416062193</v>
+        <v>0.9956676145391961</v>
       </c>
       <c r="F12">
-        <v>1.030869363028492</v>
+        <v>1.023140944342246</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053484113945852</v>
+        <v>1.044139309206859</v>
       </c>
       <c r="J12">
-        <v>1.036331021486532</v>
+        <v>1.016189212493527</v>
       </c>
       <c r="K12">
-        <v>1.04283231427653</v>
+        <v>1.030732879747671</v>
       </c>
       <c r="L12">
-        <v>1.027419464158152</v>
+        <v>1.010878289579483</v>
       </c>
       <c r="M12">
-        <v>1.045428124697023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.03783783519751</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039332073083125</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032870765425875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007188567289477</v>
+        <v>0.986239988915757</v>
       </c>
       <c r="D13">
-        <v>1.028521205223729</v>
+        <v>1.016303031503172</v>
       </c>
       <c r="E13">
-        <v>1.012839882763606</v>
+        <v>0.9960672413769152</v>
       </c>
       <c r="F13">
-        <v>1.031197670364933</v>
+        <v>1.023793698553997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053650358748133</v>
+        <v>1.044324478418932</v>
       </c>
       <c r="J13">
-        <v>1.036600258970942</v>
+        <v>1.016543535475641</v>
       </c>
       <c r="K13">
-        <v>1.043079379575975</v>
+        <v>1.031081408929972</v>
       </c>
       <c r="L13">
-        <v>1.027681934686021</v>
+        <v>1.011225888068751</v>
       </c>
       <c r="M13">
-        <v>1.045708511202416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.038436264850022</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040081731874817</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033114688975705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008417053498685</v>
+        <v>0.9871095883026501</v>
       </c>
       <c r="D14">
-        <v>1.02948291215874</v>
+        <v>1.016913526518377</v>
       </c>
       <c r="E14">
-        <v>1.013856749317472</v>
+        <v>0.9967612602956343</v>
       </c>
       <c r="F14">
-        <v>1.032269542008354</v>
+        <v>1.024562320917301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054192692235616</v>
+        <v>1.044541546127887</v>
       </c>
       <c r="J14">
-        <v>1.03747897761073</v>
+        <v>1.017065069030754</v>
       </c>
       <c r="K14">
-        <v>1.04388571768057</v>
+        <v>1.031539935254667</v>
       </c>
       <c r="L14">
-        <v>1.028538627365125</v>
+        <v>1.011761563483825</v>
       </c>
       <c r="M14">
-        <v>1.046623729343821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.039051813554511</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P14">
+        <v>1.04074151125582</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033440311912976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009170381199934</v>
+        <v>0.9875858393994389</v>
       </c>
       <c r="D15">
-        <v>1.030072786806997</v>
+        <v>1.017229065187783</v>
       </c>
       <c r="E15">
-        <v>1.014480487358271</v>
+        <v>0.9971341203541034</v>
       </c>
       <c r="F15">
-        <v>1.032927038358881</v>
+        <v>1.024914449370513</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054525036313199</v>
+        <v>1.044640852468782</v>
       </c>
       <c r="J15">
-        <v>1.038017763686932</v>
+        <v>1.017330062680346</v>
       </c>
       <c r="K15">
-        <v>1.044380110709958</v>
+        <v>1.03176305509839</v>
       </c>
       <c r="L15">
-        <v>1.029063953486399</v>
+        <v>1.012038056663924</v>
       </c>
       <c r="M15">
-        <v>1.047184980421021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.039311922801465</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040984611000517</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03360395065707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013501842262587</v>
+        <v>0.9901104349844029</v>
       </c>
       <c r="D16">
-        <v>1.033466464970326</v>
+        <v>1.018816000161545</v>
       </c>
       <c r="E16">
-        <v>1.018069462372383</v>
+        <v>0.9990800556538642</v>
       </c>
       <c r="F16">
-        <v>1.036710540724689</v>
+        <v>1.026511899762309</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056432501626202</v>
+        <v>1.045078635986745</v>
       </c>
       <c r="J16">
-        <v>1.041114716867832</v>
+        <v>1.018643934936681</v>
       </c>
       <c r="K16">
-        <v>1.047221682562562</v>
+        <v>1.032817932690011</v>
       </c>
       <c r="L16">
-        <v>1.032084212435647</v>
+        <v>1.013429213218146</v>
       </c>
       <c r="M16">
-        <v>1.050412340375483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.040383100480432</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041792580391292</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034352963407871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016173515696748</v>
+        <v>0.9915937330568567</v>
       </c>
       <c r="D17">
-        <v>1.035561398555609</v>
+        <v>1.019715141396056</v>
       </c>
       <c r="E17">
-        <v>1.020285379827447</v>
+        <v>1.00021260175269</v>
       </c>
       <c r="F17">
-        <v>1.039046812945977</v>
+        <v>1.027330865610977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057605970196336</v>
+        <v>1.045298261282652</v>
       </c>
       <c r="J17">
-        <v>1.043024050296579</v>
+        <v>1.019378829079818</v>
       </c>
       <c r="K17">
-        <v>1.048973370857335</v>
+        <v>1.033386103009197</v>
       </c>
       <c r="L17">
-        <v>1.033946841810993</v>
+        <v>1.014216904316777</v>
       </c>
       <c r="M17">
-        <v>1.052403177946406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.040876074955635</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042053310333795</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034757275878804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017716106832914</v>
+        <v>0.9923089150797427</v>
       </c>
       <c r="D18">
-        <v>1.036771560125298</v>
+        <v>1.020083512097547</v>
       </c>
       <c r="E18">
-        <v>1.021565586725483</v>
+        <v>1.000736974636721</v>
       </c>
       <c r="F18">
-        <v>1.040396642687656</v>
+        <v>1.027509819411661</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058282391039014</v>
+        <v>1.04533960534143</v>
       </c>
       <c r="J18">
-        <v>1.044126133149438</v>
+        <v>1.019665664576844</v>
       </c>
       <c r="K18">
-        <v>1.049984383217405</v>
+        <v>1.033564354601914</v>
       </c>
       <c r="L18">
-        <v>1.035022170937154</v>
+        <v>1.014542999052712</v>
       </c>
       <c r="M18">
-        <v>1.053552698195646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.04087001190521</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041811043603034</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034871646671234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018239472515738</v>
+        <v>0.992338808287877</v>
       </c>
       <c r="D19">
-        <v>1.037182234024612</v>
+        <v>1.019984692129018</v>
       </c>
       <c r="E19">
-        <v>1.022000057967989</v>
+        <v>1.000720360554823</v>
       </c>
       <c r="F19">
-        <v>1.040854757546674</v>
+        <v>1.027112643879855</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058511692225311</v>
+        <v>1.045228487151567</v>
       </c>
       <c r="J19">
-        <v>1.04449998425707</v>
+        <v>1.019558063431278</v>
       </c>
       <c r="K19">
-        <v>1.050327327720027</v>
+        <v>1.033404412215744</v>
       </c>
       <c r="L19">
-        <v>1.035386980838028</v>
+        <v>1.014462194478094</v>
       </c>
       <c r="M19">
-        <v>1.053942707228437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.040417107152172</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041127735977583</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034764969859266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015888512465992</v>
+        <v>0.9904321003423053</v>
       </c>
       <c r="D20">
-        <v>1.035337859309537</v>
+        <v>1.018562428488624</v>
       </c>
       <c r="E20">
-        <v>1.020048914761568</v>
+        <v>0.9991737503606526</v>
       </c>
       <c r="F20">
-        <v>1.038797495241696</v>
+        <v>1.025137287493779</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057480905741994</v>
+        <v>1.044687980788198</v>
       </c>
       <c r="J20">
-        <v>1.042820405452942</v>
+        <v>1.018336896815031</v>
       </c>
       <c r="K20">
-        <v>1.04878654787755</v>
+        <v>1.032286548279166</v>
       </c>
       <c r="L20">
-        <v>1.033748157003557</v>
+        <v>1.013231143947996</v>
       </c>
       <c r="M20">
-        <v>1.052190799186681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.038752074448348</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039282904976998</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033978524648857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008056045020238</v>
+        <v>0.985718292442976</v>
       </c>
       <c r="D21">
-        <v>1.02920027111139</v>
+        <v>1.015546307333431</v>
       </c>
       <c r="E21">
-        <v>1.01355789076602</v>
+        <v>0.99551782229201</v>
       </c>
       <c r="F21">
-        <v>1.031954513496852</v>
+        <v>1.021987272714777</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054033366250228</v>
+        <v>1.04381688421718</v>
       </c>
       <c r="J21">
-        <v>1.037220765469019</v>
+        <v>1.015825504169486</v>
       </c>
       <c r="K21">
-        <v>1.043648777284292</v>
+        <v>1.030239016882591</v>
       </c>
       <c r="L21">
-        <v>1.028286878090466</v>
+        <v>1.010584611385171</v>
       </c>
       <c r="M21">
-        <v>1.04635477393877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.036563728563981</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037510122730053</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032534073858972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002976516799522</v>
+        <v>0.9827121719361371</v>
       </c>
       <c r="D22">
-        <v>1.025226037725016</v>
+        <v>1.013633711961036</v>
       </c>
       <c r="E22">
-        <v>1.0093561650208</v>
+        <v>0.9931963398067688</v>
       </c>
       <c r="F22">
-        <v>1.027525786531953</v>
+        <v>1.020021899397723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051787588885166</v>
+        <v>1.043258565836716</v>
       </c>
       <c r="J22">
-        <v>1.033586621056941</v>
+        <v>1.014230355311142</v>
       </c>
       <c r="K22">
-        <v>1.040313795955599</v>
+        <v>1.028939835792423</v>
       </c>
       <c r="L22">
-        <v>1.024744525440884</v>
+        <v>1.008903794259306</v>
       </c>
       <c r="M22">
-        <v>1.042570987517564</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.035206886498234</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036436267920152</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031601943707771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005684629147466</v>
+        <v>0.9843011474119373</v>
       </c>
       <c r="D23">
-        <v>1.027344253676124</v>
+        <v>1.014638519900871</v>
       </c>
       <c r="E23">
-        <v>1.011595507937271</v>
+        <v>0.994421171336504</v>
       </c>
       <c r="F23">
-        <v>1.029886034325637</v>
+        <v>1.021057794620192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052985821129324</v>
+        <v>1.043550465371097</v>
       </c>
       <c r="J23">
-        <v>1.035524360614703</v>
+        <v>1.015069178467728</v>
       </c>
       <c r="K23">
-        <v>1.042092069759028</v>
+        <v>1.02961922901213</v>
       </c>
       <c r="L23">
-        <v>1.026633128767046</v>
+        <v>1.009788566946986</v>
       </c>
       <c r="M23">
-        <v>1.044588156150582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.035919896556206</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037000570556196</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032072639936424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0160173416951</v>
+        <v>0.9904535656012009</v>
       </c>
       <c r="D24">
-        <v>1.035438903372752</v>
+        <v>1.018550332583949</v>
       </c>
       <c r="E24">
-        <v>1.020155801055139</v>
+        <v>0.9991828968752652</v>
       </c>
       <c r="F24">
-        <v>1.038910190870391</v>
+        <v>1.025090081345463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057537441782149</v>
+        <v>1.044669204109964</v>
       </c>
       <c r="J24">
-        <v>1.042912459542239</v>
+        <v>1.018324115498223</v>
       </c>
       <c r="K24">
-        <v>1.048870998176092</v>
+        <v>1.032259331040962</v>
       </c>
       <c r="L24">
-        <v>1.033837968362349</v>
+        <v>1.013224376970864</v>
       </c>
       <c r="M24">
-        <v>1.052286800072832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.038690462048144</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039193294726708</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033931805783073</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027395158173464</v>
+        <v>0.9973595778194682</v>
       </c>
       <c r="D25">
-        <v>1.044373932667387</v>
+        <v>1.022963525329374</v>
       </c>
       <c r="E25">
-        <v>1.029610909959397</v>
+        <v>1.00456029462905</v>
       </c>
       <c r="F25">
-        <v>1.04888111261574</v>
+        <v>1.029650235943371</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062506081105338</v>
+        <v>1.045886224157375</v>
       </c>
       <c r="J25">
-        <v>1.051034475910186</v>
+        <v>1.021976130622279</v>
       </c>
       <c r="K25">
-        <v>1.056320351074896</v>
+        <v>1.03521552205598</v>
       </c>
       <c r="L25">
-        <v>1.041766309152586</v>
+        <v>1.017088227987571</v>
       </c>
       <c r="M25">
-        <v>1.060765206133703</v>
+        <v>1.041805068366554</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041658297056384</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036019124340922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00266611381844</v>
+        <v>1.002048093098824</v>
       </c>
       <c r="D2">
-        <v>1.0263537948482</v>
+        <v>1.025472627492371</v>
       </c>
       <c r="E2">
-        <v>1.008712686886666</v>
+        <v>1.008190970934054</v>
       </c>
       <c r="F2">
-        <v>1.033172864418286</v>
+        <v>1.032562734013533</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046777109496873</v>
+        <v>1.046419986464399</v>
       </c>
       <c r="J2">
-        <v>1.024767373254311</v>
+        <v>1.024167718143306</v>
       </c>
       <c r="K2">
-        <v>1.037457793984562</v>
+        <v>1.036588137814733</v>
       </c>
       <c r="L2">
-        <v>1.020051960111203</v>
+        <v>1.019537359909647</v>
       </c>
       <c r="M2">
-        <v>1.044188612369241</v>
+        <v>1.043586318789607</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043544706845072</v>
+        <v>1.043068033705826</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037556170428332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036950033179524</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021771286407653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006441978832432</v>
+        <v>1.005713168569601</v>
       </c>
       <c r="D3">
-        <v>1.028783412127013</v>
+        <v>1.027752278956917</v>
       </c>
       <c r="E3">
-        <v>1.011682711203756</v>
+        <v>1.011062650498912</v>
       </c>
       <c r="F3">
-        <v>1.035696107711028</v>
+        <v>1.034980817005202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047398277802297</v>
+        <v>1.046974457653595</v>
       </c>
       <c r="J3">
-        <v>1.026758556355962</v>
+        <v>1.026049289318489</v>
       </c>
       <c r="K3">
-        <v>1.039060787778568</v>
+        <v>1.03804196355443</v>
       </c>
       <c r="L3">
-        <v>1.022168260385354</v>
+        <v>1.021555912709094</v>
       </c>
       <c r="M3">
-        <v>1.045891747819219</v>
+        <v>1.045184852006713</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044892617455151</v>
+        <v>1.044333159984012</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038686961025388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037975071599027</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022063433468253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008844472230165</v>
+        <v>1.008045991012278</v>
       </c>
       <c r="D4">
-        <v>1.030333037720126</v>
+        <v>1.029207025635554</v>
       </c>
       <c r="E4">
-        <v>1.013578415456547</v>
+        <v>1.012896459452458</v>
       </c>
       <c r="F4">
-        <v>1.037307520484192</v>
+        <v>1.036525824385994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047784455660892</v>
+        <v>1.04731841319587</v>
       </c>
       <c r="J4">
-        <v>1.0280246097943</v>
+        <v>1.027246095067813</v>
       </c>
       <c r="K4">
-        <v>1.040078650723884</v>
+        <v>1.038965277673756</v>
       </c>
       <c r="L4">
-        <v>1.023515677311938</v>
+        <v>1.022841687982336</v>
       </c>
       <c r="M4">
-        <v>1.046975599183612</v>
+        <v>1.046202529263214</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045750407452228</v>
+        <v>1.045138578602495</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039407575502948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038628913899034</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022246633837886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009848231284173</v>
+        <v>1.00902085937848</v>
       </c>
       <c r="D5">
-        <v>1.030983237775026</v>
+        <v>1.029817781239484</v>
       </c>
       <c r="E5">
-        <v>1.014372221231688</v>
+        <v>1.013664584840283</v>
       </c>
       <c r="F5">
-        <v>1.037982850350193</v>
+        <v>1.037173570153866</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047944995413091</v>
+        <v>1.047461381883414</v>
       </c>
       <c r="J5">
-        <v>1.028554767943273</v>
+        <v>1.027747468323703</v>
       </c>
       <c r="K5">
-        <v>1.040505970474655</v>
+        <v>1.039353250775725</v>
       </c>
       <c r="L5">
-        <v>1.024079896261305</v>
+        <v>1.023380304458223</v>
       </c>
       <c r="M5">
-        <v>1.047429824379668</v>
+        <v>1.046629239164472</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046109893558367</v>
+        <v>1.04547628864647</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039716900215652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038911128945748</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022323495130525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010020133790075</v>
+        <v>1.009187859960075</v>
       </c>
       <c r="D6">
-        <v>1.031096969443095</v>
+        <v>1.029924848469967</v>
       </c>
       <c r="E6">
-        <v>1.014508718531144</v>
+        <v>1.013796718403399</v>
       </c>
       <c r="F6">
-        <v>1.038099441223406</v>
+        <v>1.037285494730916</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047974070696507</v>
+        <v>1.047487472587734</v>
       </c>
       <c r="J6">
-        <v>1.028647300740796</v>
+        <v>1.027835114517046</v>
       </c>
       <c r="K6">
-        <v>1.040582268082755</v>
+        <v>1.039422898638577</v>
       </c>
       <c r="L6">
-        <v>1.024177859091694</v>
+        <v>1.023473915757397</v>
       </c>
       <c r="M6">
-        <v>1.04750929464541</v>
+        <v>1.046704053588187</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046172788458141</v>
+        <v>1.045535498839189</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039779596542788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038969993147852</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022337806806318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008868461080653</v>
+        <v>1.008069372692803</v>
       </c>
       <c r="D7">
-        <v>1.03035481170683</v>
+        <v>1.029228072651985</v>
       </c>
       <c r="E7">
-        <v>1.013598653142528</v>
+        <v>1.012916140271884</v>
       </c>
       <c r="F7">
-        <v>1.037325940034137</v>
+        <v>1.036543714285962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047792901944858</v>
+        <v>1.047326491474771</v>
       </c>
       <c r="J7">
-        <v>1.028041990735279</v>
+        <v>1.027262875457603</v>
       </c>
       <c r="K7">
-        <v>1.040097297378951</v>
+        <v>1.038983200653909</v>
       </c>
       <c r="L7">
-        <v>1.023532731474978</v>
+        <v>1.022858188725162</v>
       </c>
       <c r="M7">
-        <v>1.046990958212578</v>
+        <v>1.046217361242741</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045762563006058</v>
+        <v>1.045150317044835</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039440881026825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038663709129274</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022251663054119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003964037944005</v>
+        <v>1.003307819523067</v>
       </c>
       <c r="D8">
-        <v>1.027195882825954</v>
+        <v>1.026263285036636</v>
       </c>
       <c r="E8">
-        <v>1.009734019918052</v>
+        <v>1.009178383867773</v>
       </c>
       <c r="F8">
-        <v>1.034041791710369</v>
+        <v>1.033395538209917</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046998184227914</v>
+        <v>1.046618127834721</v>
       </c>
       <c r="J8">
-        <v>1.025457873468904</v>
+        <v>1.02482050216808</v>
       </c>
       <c r="K8">
-        <v>1.038019650839901</v>
+        <v>1.037098877508073</v>
       </c>
       <c r="L8">
-        <v>1.020783732509471</v>
+        <v>1.020235447019277</v>
       </c>
       <c r="M8">
-        <v>1.044779573754155</v>
+        <v>1.044141376636963</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044012411043707</v>
+        <v>1.043507323086099</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037976382221627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037336371202012</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021876228893111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9949790584634119</v>
+        <v>0.9945914965040987</v>
       </c>
       <c r="D9">
-        <v>1.021430285819322</v>
+        <v>1.020857543887148</v>
       </c>
       <c r="E9">
-        <v>1.002700496030492</v>
+        <v>1.002382921052661</v>
       </c>
       <c r="F9">
-        <v>1.028070743152367</v>
+        <v>1.027677644634754</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045464912087189</v>
+        <v>1.045244765557366</v>
       </c>
       <c r="J9">
-        <v>1.020710373549189</v>
+        <v>1.020336699305808</v>
       </c>
       <c r="K9">
-        <v>1.034184983287761</v>
+        <v>1.033621048959639</v>
       </c>
       <c r="L9">
-        <v>1.015749910989495</v>
+        <v>1.015437454972879</v>
       </c>
       <c r="M9">
-        <v>1.040724236637477</v>
+        <v>1.040337082744671</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04080289207623</v>
+        <v>1.040496485791598</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035261829422741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034873851182796</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021162573986245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9888043601793396</v>
+        <v>0.9886032385709865</v>
       </c>
       <c r="D10">
-        <v>1.017515785279083</v>
+        <v>1.017189999396422</v>
       </c>
       <c r="E10">
-        <v>0.9979092214050259</v>
+        <v>0.9977560338520858</v>
       </c>
       <c r="F10">
-        <v>1.024077618998168</v>
+        <v>1.023858876042187</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044388755787147</v>
+        <v>1.044277644520366</v>
       </c>
       <c r="J10">
-        <v>1.017469321767471</v>
+        <v>1.017276441059335</v>
       </c>
       <c r="K10">
-        <v>1.03157582814997</v>
+        <v>1.031255667746711</v>
       </c>
       <c r="L10">
-        <v>1.012316328394526</v>
+        <v>1.012165922343205</v>
       </c>
       <c r="M10">
-        <v>1.038025339745429</v>
+        <v>1.037810311172216</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038718317276627</v>
+        <v>1.038548146741027</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033433835740475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033219907136526</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020670771118542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9864918399832966</v>
+        <v>0.9863320977004373</v>
       </c>
       <c r="D11">
-        <v>1.016234040784296</v>
+        <v>1.015971412344163</v>
       </c>
       <c r="E11">
-        <v>0.9961805913299532</v>
+        <v>0.9960616740055015</v>
       </c>
       <c r="F11">
-        <v>1.023176268996526</v>
+        <v>1.023000689841121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044147105329233</v>
+        <v>1.044059733826906</v>
       </c>
       <c r="J11">
-        <v>1.016437575396001</v>
+        <v>1.016284742821594</v>
       </c>
       <c r="K11">
-        <v>1.030856165951324</v>
+        <v>1.030598288279963</v>
       </c>
       <c r="L11">
-        <v>1.011174897348893</v>
+        <v>1.011058245535791</v>
       </c>
       <c r="M11">
-        <v>1.037673961521841</v>
+        <v>1.037501502436632</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038876248970785</v>
+        <v>1.03873983590751</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032957933200494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032791266394529</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020573819969084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857701679171478</v>
+        <v>0.9856097790250509</v>
       </c>
       <c r="D12">
-        <v>1.015904164448169</v>
+        <v>1.015647587123505</v>
       </c>
       <c r="E12">
-        <v>0.9956676145391961</v>
+        <v>0.9955463652910373</v>
       </c>
       <c r="F12">
-        <v>1.023140944342246</v>
+        <v>1.022968437141985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044139309206859</v>
+        <v>1.044051351581611</v>
       </c>
       <c r="J12">
-        <v>1.016189212493527</v>
+        <v>1.016035896703419</v>
       </c>
       <c r="K12">
-        <v>1.030732879747671</v>
+        <v>1.030481021136468</v>
       </c>
       <c r="L12">
-        <v>1.010878289579483</v>
+        <v>1.010759390221728</v>
       </c>
       <c r="M12">
-        <v>1.03783783519751</v>
+        <v>1.037668442158938</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039332073083125</v>
+        <v>1.039198130535791</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032870765425875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032708356020173</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020579016679194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.986239988915757</v>
+        <v>0.9860459698477213</v>
       </c>
       <c r="D13">
-        <v>1.016303031503172</v>
+        <v>1.016008285318943</v>
       </c>
       <c r="E13">
-        <v>0.9960672413769152</v>
+        <v>0.9959148676505647</v>
       </c>
       <c r="F13">
-        <v>1.023793698553997</v>
+        <v>1.023593182783485</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044324478418932</v>
+        <v>1.044216909952927</v>
       </c>
       <c r="J13">
-        <v>1.016543535475641</v>
+        <v>1.016358029976269</v>
       </c>
       <c r="K13">
-        <v>1.031081408929972</v>
+        <v>1.030792060030222</v>
       </c>
       <c r="L13">
-        <v>1.011225888068751</v>
+        <v>1.011076454533924</v>
       </c>
       <c r="M13">
-        <v>1.038436264850022</v>
+        <v>1.038239350930169</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040081731874817</v>
+        <v>1.039926067094472</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033114688975705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032925524854592</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020670374433275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9871095883026501</v>
+        <v>0.9868774557521865</v>
       </c>
       <c r="D14">
-        <v>1.016913526518377</v>
+        <v>1.01657232059718</v>
       </c>
       <c r="E14">
-        <v>0.9967612602956343</v>
+        <v>0.9965743899704288</v>
       </c>
       <c r="F14">
-        <v>1.024562320917301</v>
+        <v>1.024328379737263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044541546127887</v>
+        <v>1.044411807058745</v>
       </c>
       <c r="J14">
-        <v>1.017065069030754</v>
+        <v>1.016842974950592</v>
       </c>
       <c r="K14">
-        <v>1.031539935254667</v>
+        <v>1.031204899463586</v>
       </c>
       <c r="L14">
-        <v>1.011761563483825</v>
+        <v>1.011578252818073</v>
       </c>
       <c r="M14">
-        <v>1.039051813554511</v>
+        <v>1.03882202067435</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04074151125582</v>
+        <v>1.040559879436128</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033440311912976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033218978574417</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020773582250898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9875858393994389</v>
+        <v>0.9873368918997675</v>
       </c>
       <c r="D15">
-        <v>1.017229065187783</v>
+        <v>1.016866451484934</v>
       </c>
       <c r="E15">
-        <v>0.9971341203541034</v>
+        <v>0.9969322609624698</v>
       </c>
       <c r="F15">
-        <v>1.024914449370513</v>
+        <v>1.024665280993041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044640852468782</v>
+        <v>1.044501342898276</v>
       </c>
       <c r="J15">
-        <v>1.017330062680346</v>
+        <v>1.017091785646703</v>
       </c>
       <c r="K15">
-        <v>1.03176305509839</v>
+        <v>1.031406948783333</v>
       </c>
       <c r="L15">
-        <v>1.012038056663924</v>
+        <v>1.011840012374761</v>
       </c>
       <c r="M15">
-        <v>1.039311922801465</v>
+        <v>1.039067138796952</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040984611000517</v>
+        <v>1.040791135054986</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03360395065707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033368289572134</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020819959306732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9901104349844029</v>
+        <v>0.9897886329733352</v>
       </c>
       <c r="D16">
-        <v>1.018816000161545</v>
+        <v>1.01835558540882</v>
       </c>
       <c r="E16">
-        <v>0.9990800556538642</v>
+        <v>0.9988144876823682</v>
       </c>
       <c r="F16">
-        <v>1.026511899762309</v>
+        <v>1.02619408531437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045078635986745</v>
+        <v>1.044896781574703</v>
       </c>
       <c r="J16">
-        <v>1.018643934936681</v>
+        <v>1.018335229412831</v>
       </c>
       <c r="K16">
-        <v>1.032817932690011</v>
+        <v>1.032365420067522</v>
       </c>
       <c r="L16">
-        <v>1.013429213218146</v>
+        <v>1.013168439168004</v>
       </c>
       <c r="M16">
-        <v>1.040383100480432</v>
+        <v>1.040070634750125</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041792580391292</v>
+        <v>1.041545602149268</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034352963407871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034049435880594</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02101819408037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9915937330568567</v>
+        <v>0.9912360317174391</v>
       </c>
       <c r="D17">
-        <v>1.019715141396056</v>
+        <v>1.019204087957315</v>
       </c>
       <c r="E17">
-        <v>1.00021260175269</v>
+        <v>0.9999162006567719</v>
       </c>
       <c r="F17">
-        <v>1.027330865610977</v>
+        <v>1.026977901666817</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045298261282652</v>
+        <v>1.045095486591125</v>
       </c>
       <c r="J17">
-        <v>1.019378829079818</v>
+        <v>1.019035212758383</v>
       </c>
       <c r="K17">
-        <v>1.033386103009197</v>
+        <v>1.032883574871689</v>
       </c>
       <c r="L17">
-        <v>1.014216904316777</v>
+        <v>1.013925699338635</v>
       </c>
       <c r="M17">
-        <v>1.040876074955635</v>
+        <v>1.040528886232055</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042053310333795</v>
+        <v>1.04177885914652</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034757275878804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034418631550366</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021115348246063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9923089150797427</v>
+        <v>0.9919449215856119</v>
       </c>
       <c r="D18">
-        <v>1.020083512097547</v>
+        <v>1.019559176363867</v>
       </c>
       <c r="E18">
-        <v>1.000736974636721</v>
+        <v>1.000436271341032</v>
       </c>
       <c r="F18">
-        <v>1.027509819411661</v>
+        <v>1.02714828879285</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04533960534143</v>
+        <v>1.045133218649051</v>
       </c>
       <c r="J18">
-        <v>1.019665664576844</v>
+        <v>1.019315732409234</v>
       </c>
       <c r="K18">
-        <v>1.033564354601914</v>
+        <v>1.033048622806554</v>
       </c>
       <c r="L18">
-        <v>1.014542999052712</v>
+        <v>1.014247478420296</v>
       </c>
       <c r="M18">
-        <v>1.04087001190521</v>
+        <v>1.040514302981812</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041811043603034</v>
+        <v>1.041529798704621</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034871646671234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034522528778273</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021127960898349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.992338808287877</v>
+        <v>0.9919947540066386</v>
       </c>
       <c r="D19">
-        <v>1.019984692129018</v>
+        <v>1.019480591375606</v>
       </c>
       <c r="E19">
-        <v>1.000720360554823</v>
+        <v>1.000438760135247</v>
       </c>
       <c r="F19">
-        <v>1.027112643879855</v>
+        <v>1.026766321391506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045228487151567</v>
+        <v>1.045033856272559</v>
       </c>
       <c r="J19">
-        <v>1.019558063431278</v>
+        <v>1.019227220811068</v>
       </c>
       <c r="K19">
-        <v>1.033404412215744</v>
+        <v>1.032908541041778</v>
       </c>
       <c r="L19">
-        <v>1.014462194478094</v>
+        <v>1.014185421513678</v>
       </c>
       <c r="M19">
-        <v>1.040417107152172</v>
+        <v>1.040076337156</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041127735977583</v>
+        <v>1.040858214776538</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034764969859266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034430520629353</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021069771324135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9904321003423053</v>
+        <v>0.9901811424715093</v>
       </c>
       <c r="D20">
-        <v>1.018562428488624</v>
+        <v>1.018171389393322</v>
       </c>
       <c r="E20">
-        <v>0.9991737503606526</v>
+        <v>0.9989765935777092</v>
       </c>
       <c r="F20">
-        <v>1.025137287493779</v>
+        <v>1.02487232255779</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044687980788198</v>
+        <v>1.044547876501289</v>
       </c>
       <c r="J20">
-        <v>1.018336896815031</v>
+        <v>1.018095883097353</v>
       </c>
       <c r="K20">
-        <v>1.032286548279166</v>
+        <v>1.031902069097122</v>
       </c>
       <c r="L20">
-        <v>1.013231143947996</v>
+        <v>1.01303746225563</v>
       </c>
       <c r="M20">
-        <v>1.038752074448348</v>
+        <v>1.038491480688642</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039282904976998</v>
+        <v>1.039076672322253</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033978524648857</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033723228372636</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020809900813309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.985718292442976</v>
+        <v>0.9856171920772387</v>
       </c>
       <c r="D21">
-        <v>1.015546307333431</v>
+        <v>1.015350544226472</v>
       </c>
       <c r="E21">
-        <v>0.99551782229201</v>
+        <v>0.9954528825702633</v>
       </c>
       <c r="F21">
-        <v>1.021987272714777</v>
+        <v>1.021860765296392</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04381688421718</v>
+        <v>1.043763640671293</v>
       </c>
       <c r="J21">
-        <v>1.015825504169486</v>
+        <v>1.015728808414058</v>
       </c>
       <c r="K21">
-        <v>1.030239016882591</v>
+        <v>1.030046817180429</v>
       </c>
       <c r="L21">
-        <v>1.010584611385171</v>
+        <v>1.010520916617687</v>
       </c>
       <c r="M21">
-        <v>1.036563728563981</v>
+        <v>1.036439486165825</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037510122730053</v>
+        <v>1.037411792785238</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032534073858972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03241506381127</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020411508804242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9827121719361371</v>
+        <v>0.9827063726944233</v>
       </c>
       <c r="D22">
-        <v>1.013633711961036</v>
+        <v>1.013561393310435</v>
       </c>
       <c r="E22">
-        <v>0.9931963398067688</v>
+        <v>0.9932151977042369</v>
       </c>
       <c r="F22">
-        <v>1.020021899397723</v>
+        <v>1.019983088723996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043258565836716</v>
+        <v>1.043260026169867</v>
       </c>
       <c r="J22">
-        <v>1.014230355311142</v>
+        <v>1.014224823651144</v>
       </c>
       <c r="K22">
-        <v>1.028939835792423</v>
+        <v>1.028868899931719</v>
       </c>
       <c r="L22">
-        <v>1.008903794259306</v>
+        <v>1.008922271818055</v>
       </c>
       <c r="M22">
-        <v>1.035206886498234</v>
+        <v>1.035168805792415</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036436267920152</v>
+        <v>1.036406129422913</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031601943707771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031567372957074</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020157110818221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9843011474119373</v>
+        <v>0.9842449079898062</v>
       </c>
       <c r="D23">
-        <v>1.014638519900871</v>
+        <v>1.014500806969237</v>
       </c>
       <c r="E23">
-        <v>0.994421171336504</v>
+        <v>0.9943957285278392</v>
       </c>
       <c r="F23">
-        <v>1.021057794620192</v>
+        <v>1.020972541337718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043550465371097</v>
+        <v>1.043523027612438</v>
       </c>
       <c r="J23">
-        <v>1.015069178467728</v>
+        <v>1.015015456773438</v>
       </c>
       <c r="K23">
-        <v>1.02961922901213</v>
+        <v>1.029484082023048</v>
       </c>
       <c r="L23">
-        <v>1.009788566946986</v>
+        <v>1.00976362377377</v>
       </c>
       <c r="M23">
-        <v>1.035919896556206</v>
+        <v>1.03583620574849</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037000570556196</v>
+        <v>1.03693433456648</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032072639936424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031991720733227</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020288955653216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9904535656012009</v>
+        <v>0.9902047674613185</v>
       </c>
       <c r="D24">
-        <v>1.018550332583949</v>
+        <v>1.018161130905946</v>
       </c>
       <c r="E24">
-        <v>0.9991828968752652</v>
+        <v>0.9989878648744266</v>
       </c>
       <c r="F24">
-        <v>1.025090081345463</v>
+        <v>1.024826588503245</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044669204109964</v>
+        <v>1.044530373455101</v>
       </c>
       <c r="J24">
-        <v>1.018324115498223</v>
+        <v>1.018085161413888</v>
       </c>
       <c r="K24">
-        <v>1.032259331040962</v>
+        <v>1.031876650263229</v>
       </c>
       <c r="L24">
-        <v>1.013224376970864</v>
+        <v>1.013032778084234</v>
       </c>
       <c r="M24">
-        <v>1.038690462048144</v>
+        <v>1.038431311038966</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039193294726708</v>
+        <v>1.038988193676483</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033931805783073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033675102754112</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020798682381459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9973595778194682</v>
+        <v>0.99689994731495</v>
       </c>
       <c r="D25">
-        <v>1.022963525329374</v>
+        <v>1.02229511396723</v>
       </c>
       <c r="E25">
-        <v>1.00456029462905</v>
+        <v>1.004178905484849</v>
       </c>
       <c r="F25">
-        <v>1.029650235943371</v>
+        <v>1.029189651782529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045886224157375</v>
+        <v>1.045623498689438</v>
       </c>
       <c r="J25">
-        <v>1.021976130622279</v>
+        <v>1.021532092902247</v>
       </c>
       <c r="K25">
-        <v>1.03521552205598</v>
+        <v>1.034556912057444</v>
       </c>
       <c r="L25">
-        <v>1.017088227987571</v>
+        <v>1.01671269386074</v>
       </c>
       <c r="M25">
-        <v>1.041805068366554</v>
+        <v>1.041351125633192</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041658297056384</v>
+        <v>1.041299032305819</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036019124340922</v>
+        <v>1.035567012095064</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021359002128792</v>
       </c>
     </row>
   </sheetData>
